--- a/高松/ドキュメント/高松プログラミングチーム開発スケジュール.xlsx
+++ b/高松/ドキュメント/高松プログラミングチーム開発スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ririth\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ririth\Desktop\GameProject\高松\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -937,43 +937,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -987,6 +954,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -994,6 +973,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1296,137 +1296,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
       <c r="V1" s="7"/>
     </row>
     <row r="2" spans="1:35" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
       <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:35" ht="21" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="14">
         <v>42804</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14">
         <v>42805</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14">
         <v>42806</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14">
         <v>42807</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14">
         <v>42808</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19">
+      <c r="O3" s="14"/>
+      <c r="P3" s="14">
         <v>42809</v>
       </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14">
         <v>42810</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19">
+      <c r="S3" s="14"/>
+      <c r="T3" s="14">
         <v>42811</v>
       </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19">
+      <c r="U3" s="14"/>
+      <c r="V3" s="14">
         <v>42812</v>
       </c>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19">
+      <c r="W3" s="14"/>
+      <c r="X3" s="14">
         <v>42813</v>
       </c>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19">
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14">
         <v>42814</v>
       </c>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19">
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14">
         <v>42815</v>
       </c>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19">
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14">
         <v>42816</v>
       </c>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19">
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14">
         <v>42817</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19">
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14">
         <v>42818</v>
       </c>
-      <c r="AI3" s="19"/>
+      <c r="AI3" s="14"/>
     </row>
     <row r="4" spans="1:35" ht="21" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="12" t="s">
         <v>102</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1518,2136 +1518,2283 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="24"/>
-      <c r="AC5" s="27" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="13"/>
+      <c r="AC5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="AD5" s="26" t="s">
+      <c r="AD5" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="25" t="s">
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="22"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="25"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="18"/>
     </row>
     <row r="7" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="24"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="25"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="13"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="18"/>
     </row>
     <row r="8" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="22"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="25"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="11"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="22"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="25"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="18"/>
     </row>
     <row r="10" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="24"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="25"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="13"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="18"/>
     </row>
     <row r="11" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="24"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="25"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="13"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="18"/>
     </row>
     <row r="12" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="20"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="25"/>
+      <c r="E12" s="21"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="18"/>
     </row>
     <row r="13" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="20"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="25"/>
+      <c r="E13" s="21"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="18"/>
     </row>
     <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="25"/>
+      <c r="E14" s="21"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="18"/>
     </row>
     <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="20"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="21"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="18"/>
     </row>
     <row r="16" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="20"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="25"/>
+      <c r="E16" s="21"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="18"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="20"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="25"/>
+      <c r="E17" s="21"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="18"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="20"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="25"/>
+      <c r="E18" s="21"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="18"/>
     </row>
     <row r="19" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="25"/>
+      <c r="E19" s="21"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="18"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="20"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="25"/>
+      <c r="E20" s="21"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="18"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="20"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="25"/>
+      <c r="E21" s="21"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="18"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="20"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="25"/>
+      <c r="E22" s="21"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="18"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="20"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="25"/>
+      <c r="E23" s="21"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="18"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="20"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="25"/>
+      <c r="E24" s="21"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="18"/>
     </row>
     <row r="25" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="25"/>
+      <c r="E25" s="21"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="18"/>
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="20"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="25"/>
+      <c r="E26" s="21"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="18"/>
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="20"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="25"/>
+      <c r="E27" s="21"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="18"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="20"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="25"/>
+      <c r="E28" s="21"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="18"/>
     </row>
     <row r="29" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="25"/>
+      <c r="E29" s="21"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="18"/>
     </row>
     <row r="30" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="20"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="25"/>
+      <c r="E30" s="21"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="18"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="20"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="25"/>
+      <c r="E31" s="21"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="18"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="20"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="25"/>
+      <c r="E32" s="21"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="18"/>
     </row>
     <row r="33" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="20"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="25"/>
+      <c r="E33" s="21"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="18"/>
     </row>
     <row r="34" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="25"/>
+      <c r="E34" s="21"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="18"/>
     </row>
     <row r="35" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="20"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="25"/>
+      <c r="E35" s="21"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="18"/>
     </row>
     <row r="36" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="20"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="25"/>
+      <c r="E36" s="21"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="18"/>
     </row>
     <row r="37" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="20"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="25"/>
+      <c r="E37" s="21"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="18"/>
     </row>
     <row r="38" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="24"/>
+      <c r="B38" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="25"/>
+      <c r="E38" s="21"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="18"/>
     </row>
     <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="E39" s="20"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="25"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="E39" s="21"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="18"/>
     </row>
     <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="E40" s="20"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="25"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="E40" s="21"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="18"/>
     </row>
     <row r="41" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="25"/>
+      <c r="E41" s="21"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="18"/>
     </row>
     <row r="42" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="24"/>
+      <c r="B42" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="E42" s="20"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="26"/>
-      <c r="AE42" s="26"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="25"/>
+      <c r="C42" s="17"/>
+      <c r="E42" s="21"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="18"/>
     </row>
     <row r="43" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="12"/>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="24"/>
+      <c r="B43" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="E43" s="20"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="25"/>
+      <c r="C43" s="16"/>
+      <c r="E43" s="21"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="18"/>
     </row>
     <row r="44" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="24"/>
+      <c r="B44" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="25"/>
+      <c r="E44" s="21"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="18"/>
     </row>
     <row r="45" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="12"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="24"/>
+      <c r="B45" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="E45" s="20"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="25"/>
+      <c r="C45" s="16"/>
+      <c r="E45" s="21"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="18"/>
     </row>
     <row r="46" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="12"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="24"/>
+      <c r="B46" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="E46" s="20"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="26"/>
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="25"/>
+      <c r="C46" s="17"/>
+      <c r="E46" s="21"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="18"/>
     </row>
     <row r="47" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="12"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="8"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="26"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="25"/>
+      <c r="E47" s="21"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="18"/>
     </row>
     <row r="48" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="12"/>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="24"/>
+      <c r="B48" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="26"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="25"/>
+      <c r="E48" s="21"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
+      <c r="AG48" s="19"/>
+      <c r="AH48" s="19"/>
+      <c r="AI48" s="18"/>
     </row>
     <row r="49" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="26"/>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="25"/>
+      <c r="E49" s="21"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
+      <c r="AF49" s="19"/>
+      <c r="AG49" s="19"/>
+      <c r="AH49" s="19"/>
+      <c r="AI49" s="18"/>
     </row>
     <row r="50" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="24"/>
+      <c r="B50" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="E50" s="20"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26"/>
-      <c r="AI50" s="25"/>
+      <c r="C50" s="17"/>
+      <c r="E50" s="21"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19"/>
+      <c r="AG50" s="19"/>
+      <c r="AH50" s="19"/>
+      <c r="AI50" s="18"/>
     </row>
     <row r="51" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="12"/>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="24"/>
+      <c r="B51" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="E51" s="20"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26"/>
-      <c r="AI51" s="25"/>
+      <c r="C51" s="17"/>
+      <c r="E51" s="21"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="19"/>
+      <c r="AH51" s="19"/>
+      <c r="AI51" s="18"/>
     </row>
     <row r="52" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="12"/>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="E52" s="20"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="27"/>
-      <c r="AD52" s="26"/>
-      <c r="AE52" s="26"/>
-      <c r="AF52" s="26"/>
-      <c r="AG52" s="26"/>
-      <c r="AH52" s="26"/>
-      <c r="AI52" s="25"/>
+      <c r="C52" s="17"/>
+      <c r="E52" s="21"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="18"/>
     </row>
     <row r="53" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="12"/>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="24"/>
+      <c r="B53" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="E53" s="20"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
-      <c r="AF53" s="26"/>
-      <c r="AG53" s="26"/>
-      <c r="AH53" s="26"/>
-      <c r="AI53" s="25"/>
+      <c r="C53" s="17"/>
+      <c r="E53" s="21"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="19"/>
+      <c r="AF53" s="19"/>
+      <c r="AG53" s="19"/>
+      <c r="AH53" s="19"/>
+      <c r="AI53" s="18"/>
     </row>
     <row r="54" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="12"/>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="24"/>
+      <c r="B54" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="E54" s="20"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="22"/>
-      <c r="AA54" s="22"/>
-      <c r="AB54" s="22"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="26"/>
-      <c r="AE54" s="26"/>
-      <c r="AF54" s="26"/>
-      <c r="AG54" s="26"/>
-      <c r="AH54" s="26"/>
-      <c r="AI54" s="25"/>
+      <c r="C54" s="17"/>
+      <c r="E54" s="21"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
+      <c r="AF54" s="19"/>
+      <c r="AG54" s="19"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="18"/>
     </row>
     <row r="55" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="12"/>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="24"/>
+      <c r="B55" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="E55" s="20"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22"/>
-      <c r="AC55" s="27"/>
-      <c r="AD55" s="26"/>
-      <c r="AE55" s="26"/>
-      <c r="AF55" s="26"/>
-      <c r="AG55" s="26"/>
-      <c r="AH55" s="26"/>
-      <c r="AI55" s="25"/>
+      <c r="C55" s="17"/>
+      <c r="E55" s="21"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="19"/>
+      <c r="AE55" s="19"/>
+      <c r="AF55" s="19"/>
+      <c r="AG55" s="19"/>
+      <c r="AH55" s="19"/>
+      <c r="AI55" s="18"/>
     </row>
     <row r="56" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="12"/>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="24"/>
+      <c r="B56" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="E56" s="20"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="26"/>
-      <c r="AE56" s="26"/>
-      <c r="AF56" s="26"/>
-      <c r="AG56" s="26"/>
-      <c r="AH56" s="26"/>
-      <c r="AI56" s="25"/>
+      <c r="C56" s="17"/>
+      <c r="E56" s="21"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+      <c r="AF56" s="19"/>
+      <c r="AG56" s="19"/>
+      <c r="AH56" s="19"/>
+      <c r="AI56" s="18"/>
     </row>
     <row r="57" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="12"/>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="24"/>
+      <c r="B57" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="E57" s="20"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="22"/>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="22"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="26"/>
-      <c r="AE57" s="26"/>
-      <c r="AF57" s="26"/>
-      <c r="AG57" s="26"/>
-      <c r="AH57" s="26"/>
-      <c r="AI57" s="25"/>
+      <c r="C57" s="17"/>
+      <c r="E57" s="21"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="19"/>
+      <c r="AF57" s="19"/>
+      <c r="AG57" s="19"/>
+      <c r="AH57" s="19"/>
+      <c r="AI57" s="18"/>
     </row>
     <row r="58" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="12"/>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="24"/>
+      <c r="B58" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="22"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="26"/>
-      <c r="AE58" s="26"/>
-      <c r="AF58" s="26"/>
-      <c r="AG58" s="26"/>
-      <c r="AH58" s="26"/>
-      <c r="AI58" s="25"/>
+      <c r="E58" s="21"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="20"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="19"/>
+      <c r="AF58" s="19"/>
+      <c r="AG58" s="19"/>
+      <c r="AH58" s="19"/>
+      <c r="AI58" s="18"/>
     </row>
     <row r="59" spans="1:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="26"/>
-      <c r="AG59" s="26"/>
-      <c r="AH59" s="26"/>
-      <c r="AI59" s="25"/>
+      <c r="E59" s="21"/>
+      <c r="AC59" s="20"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="19"/>
+      <c r="AG59" s="19"/>
+      <c r="AH59" s="19"/>
+      <c r="AI59" s="18"/>
     </row>
     <row r="60" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="15"/>
-      <c r="B60" s="8" t="s">
+      <c r="A60" s="25"/>
+      <c r="B60" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60" s="26"/>
-      <c r="AF60" s="26"/>
-      <c r="AG60" s="26"/>
-      <c r="AH60" s="26"/>
-      <c r="AI60" s="25"/>
+      <c r="E60" s="21"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
+      <c r="AF60" s="19"/>
+      <c r="AG60" s="19"/>
+      <c r="AH60" s="19"/>
+      <c r="AI60" s="18"/>
     </row>
     <row r="61" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="15"/>
-      <c r="B61" s="10" t="s">
+      <c r="A61" s="25"/>
+      <c r="B61" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="E61" s="20"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="AC61" s="27"/>
-      <c r="AD61" s="26"/>
-      <c r="AE61" s="26"/>
-      <c r="AF61" s="26"/>
-      <c r="AG61" s="26"/>
-      <c r="AH61" s="26"/>
-      <c r="AI61" s="25"/>
+      <c r="C61" s="17"/>
+      <c r="E61" s="21"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="19"/>
+      <c r="AF61" s="19"/>
+      <c r="AG61" s="19"/>
+      <c r="AH61" s="19"/>
+      <c r="AI61" s="18"/>
     </row>
     <row r="62" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="15"/>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="25"/>
+      <c r="B62" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="E62" s="20"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="AC62" s="27"/>
-      <c r="AD62" s="26"/>
-      <c r="AE62" s="26"/>
-      <c r="AF62" s="26"/>
-      <c r="AG62" s="26"/>
-      <c r="AH62" s="26"/>
-      <c r="AI62" s="25"/>
+      <c r="C62" s="17"/>
+      <c r="E62" s="21"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="19"/>
+      <c r="AE62" s="19"/>
+      <c r="AF62" s="19"/>
+      <c r="AG62" s="19"/>
+      <c r="AH62" s="19"/>
+      <c r="AI62" s="18"/>
     </row>
     <row r="63" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="15"/>
-      <c r="B63" s="8" t="s">
+      <c r="A63" s="25"/>
+      <c r="B63" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="AC63" s="27"/>
-      <c r="AD63" s="26"/>
-      <c r="AE63" s="26"/>
-      <c r="AF63" s="26"/>
-      <c r="AG63" s="26"/>
-      <c r="AH63" s="26"/>
-      <c r="AI63" s="25"/>
+      <c r="E63" s="21"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="AC63" s="20"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+      <c r="AF63" s="19"/>
+      <c r="AG63" s="19"/>
+      <c r="AH63" s="19"/>
+      <c r="AI63" s="18"/>
     </row>
     <row r="64" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="8" t="s">
+      <c r="A64" s="25"/>
+      <c r="B64" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="9"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="AC64" s="27"/>
-      <c r="AD64" s="26"/>
-      <c r="AE64" s="26"/>
-      <c r="AF64" s="26"/>
-      <c r="AG64" s="26"/>
-      <c r="AH64" s="26"/>
-      <c r="AI64" s="25"/>
+      <c r="E64" s="21"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="19"/>
+      <c r="AE64" s="19"/>
+      <c r="AF64" s="19"/>
+      <c r="AG64" s="19"/>
+      <c r="AH64" s="19"/>
+      <c r="AI64" s="18"/>
     </row>
     <row r="65" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="15"/>
-      <c r="B65" s="10" t="s">
+      <c r="A65" s="25"/>
+      <c r="B65" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="E65" s="20"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="AC65" s="27"/>
-      <c r="AD65" s="26"/>
-      <c r="AE65" s="26"/>
-      <c r="AF65" s="26"/>
-      <c r="AG65" s="26"/>
-      <c r="AH65" s="26"/>
-      <c r="AI65" s="25"/>
+      <c r="C65" s="17"/>
+      <c r="E65" s="21"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="19"/>
+      <c r="AE65" s="19"/>
+      <c r="AF65" s="19"/>
+      <c r="AG65" s="19"/>
+      <c r="AH65" s="19"/>
+      <c r="AI65" s="18"/>
     </row>
     <row r="66" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="15"/>
-      <c r="B66" s="11" t="s">
+      <c r="A66" s="25"/>
+      <c r="B66" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="E66" s="20"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="AC66" s="27"/>
-      <c r="AD66" s="26"/>
-      <c r="AE66" s="26"/>
-      <c r="AF66" s="26"/>
-      <c r="AG66" s="26"/>
-      <c r="AH66" s="26"/>
-      <c r="AI66" s="25"/>
+      <c r="C66" s="17"/>
+      <c r="E66" s="21"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="19"/>
+      <c r="AE66" s="19"/>
+      <c r="AF66" s="19"/>
+      <c r="AG66" s="19"/>
+      <c r="AH66" s="19"/>
+      <c r="AI66" s="18"/>
     </row>
     <row r="67" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="15"/>
-      <c r="B67" s="11" t="s">
+      <c r="A67" s="25"/>
+      <c r="B67" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="E67" s="20"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="AC67" s="27"/>
-      <c r="AD67" s="26"/>
-      <c r="AE67" s="26"/>
-      <c r="AF67" s="26"/>
-      <c r="AG67" s="26"/>
-      <c r="AH67" s="26"/>
-      <c r="AI67" s="25"/>
+      <c r="C67" s="17"/>
+      <c r="E67" s="21"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="19"/>
+      <c r="AE67" s="19"/>
+      <c r="AF67" s="19"/>
+      <c r="AG67" s="19"/>
+      <c r="AH67" s="19"/>
+      <c r="AI67" s="18"/>
     </row>
     <row r="68" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="15"/>
-      <c r="B68" s="11" t="s">
+      <c r="A68" s="25"/>
+      <c r="B68" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="E68" s="20"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="AC68" s="27"/>
-      <c r="AD68" s="26"/>
-      <c r="AE68" s="26"/>
-      <c r="AF68" s="26"/>
-      <c r="AG68" s="26"/>
-      <c r="AH68" s="26"/>
-      <c r="AI68" s="25"/>
+      <c r="C68" s="17"/>
+      <c r="E68" s="21"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="19"/>
+      <c r="AE68" s="19"/>
+      <c r="AF68" s="19"/>
+      <c r="AG68" s="19"/>
+      <c r="AH68" s="19"/>
+      <c r="AI68" s="18"/>
     </row>
     <row r="69" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="15"/>
-      <c r="B69" s="11" t="s">
+      <c r="A69" s="25"/>
+      <c r="B69" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="11"/>
-      <c r="E69" s="20"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="AC69" s="27"/>
-      <c r="AD69" s="26"/>
-      <c r="AE69" s="26"/>
-      <c r="AF69" s="26"/>
-      <c r="AG69" s="26"/>
-      <c r="AH69" s="26"/>
-      <c r="AI69" s="25"/>
+      <c r="C69" s="17"/>
+      <c r="E69" s="21"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="AC69" s="20"/>
+      <c r="AD69" s="19"/>
+      <c r="AE69" s="19"/>
+      <c r="AF69" s="19"/>
+      <c r="AG69" s="19"/>
+      <c r="AH69" s="19"/>
+      <c r="AI69" s="18"/>
     </row>
     <row r="70" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="15"/>
-      <c r="B70" s="11" t="s">
+      <c r="A70" s="25"/>
+      <c r="B70" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="11"/>
-      <c r="E70" s="20"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="AC70" s="27"/>
-      <c r="AD70" s="26"/>
-      <c r="AE70" s="26"/>
-      <c r="AF70" s="26"/>
-      <c r="AG70" s="26"/>
-      <c r="AH70" s="26"/>
-      <c r="AI70" s="25"/>
+      <c r="C70" s="17"/>
+      <c r="E70" s="21"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="AC70" s="20"/>
+      <c r="AD70" s="19"/>
+      <c r="AE70" s="19"/>
+      <c r="AF70" s="19"/>
+      <c r="AG70" s="19"/>
+      <c r="AH70" s="19"/>
+      <c r="AI70" s="18"/>
     </row>
     <row r="71" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="15"/>
-      <c r="B71" s="8" t="s">
+      <c r="A71" s="25"/>
+      <c r="B71" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="9"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E71" s="20"/>
-      <c r="AC71" s="27"/>
-      <c r="AD71" s="26"/>
-      <c r="AE71" s="26"/>
-      <c r="AF71" s="26"/>
-      <c r="AG71" s="26"/>
-      <c r="AH71" s="26"/>
-      <c r="AI71" s="25"/>
+      <c r="E71" s="21"/>
+      <c r="AC71" s="20"/>
+      <c r="AD71" s="19"/>
+      <c r="AE71" s="19"/>
+      <c r="AF71" s="19"/>
+      <c r="AG71" s="19"/>
+      <c r="AH71" s="19"/>
+      <c r="AI71" s="18"/>
     </row>
     <row r="72" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="15"/>
-      <c r="B72" s="8" t="s">
+      <c r="A72" s="25"/>
+      <c r="B72" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="9"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E72" s="20"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="AC72" s="27"/>
-      <c r="AD72" s="26"/>
-      <c r="AE72" s="26"/>
-      <c r="AF72" s="26"/>
-      <c r="AG72" s="26"/>
-      <c r="AH72" s="26"/>
-      <c r="AI72" s="25"/>
+      <c r="E72" s="21"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="AC72" s="20"/>
+      <c r="AD72" s="19"/>
+      <c r="AE72" s="19"/>
+      <c r="AF72" s="19"/>
+      <c r="AG72" s="19"/>
+      <c r="AH72" s="19"/>
+      <c r="AI72" s="18"/>
     </row>
     <row r="73" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="9"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="20"/>
-      <c r="AC73" s="27"/>
-      <c r="AD73" s="26"/>
-      <c r="AE73" s="26"/>
-      <c r="AF73" s="26"/>
-      <c r="AG73" s="26"/>
-      <c r="AH73" s="26"/>
-      <c r="AI73" s="25"/>
+      <c r="E73" s="21"/>
+      <c r="AC73" s="20"/>
+      <c r="AD73" s="19"/>
+      <c r="AE73" s="19"/>
+      <c r="AF73" s="19"/>
+      <c r="AG73" s="19"/>
+      <c r="AH73" s="19"/>
+      <c r="AI73" s="18"/>
     </row>
     <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="12"/>
-      <c r="B74" s="10" t="s">
+      <c r="A74" s="24"/>
+      <c r="B74" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="E74" s="20"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="AC74" s="27"/>
-      <c r="AD74" s="26"/>
-      <c r="AE74" s="26"/>
-      <c r="AF74" s="26"/>
-      <c r="AG74" s="26"/>
-      <c r="AH74" s="26"/>
-      <c r="AI74" s="25"/>
+      <c r="C74" s="17"/>
+      <c r="E74" s="21"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="AC74" s="20"/>
+      <c r="AD74" s="19"/>
+      <c r="AE74" s="19"/>
+      <c r="AF74" s="19"/>
+      <c r="AG74" s="19"/>
+      <c r="AH74" s="19"/>
+      <c r="AI74" s="18"/>
     </row>
     <row r="75" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="12"/>
-      <c r="B75" s="11" t="s">
+      <c r="A75" s="24"/>
+      <c r="B75" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="11"/>
-      <c r="E75" s="20"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="AC75" s="27"/>
-      <c r="AD75" s="26"/>
-      <c r="AE75" s="26"/>
-      <c r="AF75" s="26"/>
-      <c r="AG75" s="26"/>
-      <c r="AH75" s="26"/>
-      <c r="AI75" s="25"/>
+      <c r="C75" s="17"/>
+      <c r="E75" s="21"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="AC75" s="20"/>
+      <c r="AD75" s="19"/>
+      <c r="AE75" s="19"/>
+      <c r="AF75" s="19"/>
+      <c r="AG75" s="19"/>
+      <c r="AH75" s="19"/>
+      <c r="AI75" s="18"/>
     </row>
     <row r="76" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="12"/>
-      <c r="B76" s="11" t="s">
+      <c r="A76" s="24"/>
+      <c r="B76" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="11"/>
-      <c r="E76" s="20"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="AC76" s="27"/>
-      <c r="AD76" s="26"/>
-      <c r="AE76" s="26"/>
-      <c r="AF76" s="26"/>
-      <c r="AG76" s="26"/>
-      <c r="AH76" s="26"/>
-      <c r="AI76" s="25"/>
+      <c r="C76" s="17"/>
+      <c r="E76" s="21"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="AC76" s="20"/>
+      <c r="AD76" s="19"/>
+      <c r="AE76" s="19"/>
+      <c r="AF76" s="19"/>
+      <c r="AG76" s="19"/>
+      <c r="AH76" s="19"/>
+      <c r="AI76" s="18"/>
     </row>
     <row r="77" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="12"/>
-      <c r="B77" s="11" t="s">
+      <c r="A77" s="24"/>
+      <c r="B77" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="11"/>
-      <c r="E77" s="20"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="AC77" s="27"/>
-      <c r="AD77" s="26"/>
-      <c r="AE77" s="26"/>
-      <c r="AF77" s="26"/>
-      <c r="AG77" s="26"/>
-      <c r="AH77" s="26"/>
-      <c r="AI77" s="25"/>
+      <c r="C77" s="17"/>
+      <c r="E77" s="21"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="AC77" s="20"/>
+      <c r="AD77" s="19"/>
+      <c r="AE77" s="19"/>
+      <c r="AF77" s="19"/>
+      <c r="AG77" s="19"/>
+      <c r="AH77" s="19"/>
+      <c r="AI77" s="18"/>
     </row>
     <row r="78" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="12"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="24"/>
+      <c r="B78" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="9"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E78" s="20"/>
-      <c r="AC78" s="27"/>
-      <c r="AD78" s="26"/>
-      <c r="AE78" s="26"/>
-      <c r="AF78" s="26"/>
-      <c r="AG78" s="26"/>
-      <c r="AH78" s="26"/>
-      <c r="AI78" s="25"/>
+      <c r="E78" s="21"/>
+      <c r="AC78" s="20"/>
+      <c r="AD78" s="19"/>
+      <c r="AE78" s="19"/>
+      <c r="AF78" s="19"/>
+      <c r="AG78" s="19"/>
+      <c r="AH78" s="19"/>
+      <c r="AI78" s="18"/>
     </row>
     <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="12"/>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="24"/>
+      <c r="B79" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C79" s="11"/>
-      <c r="E79" s="20"/>
-      <c r="AC79" s="27"/>
-      <c r="AD79" s="26"/>
-      <c r="AE79" s="26"/>
-      <c r="AF79" s="26"/>
-      <c r="AG79" s="26"/>
-      <c r="AH79" s="26"/>
-      <c r="AI79" s="25"/>
+      <c r="C79" s="17"/>
+      <c r="E79" s="21"/>
+      <c r="AC79" s="20"/>
+      <c r="AD79" s="19"/>
+      <c r="AE79" s="19"/>
+      <c r="AF79" s="19"/>
+      <c r="AG79" s="19"/>
+      <c r="AH79" s="19"/>
+      <c r="AI79" s="18"/>
     </row>
     <row r="80" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="12"/>
-      <c r="B80" s="11" t="s">
+      <c r="A80" s="24"/>
+      <c r="B80" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="E80" s="20"/>
-      <c r="AC80" s="27"/>
-      <c r="AD80" s="26"/>
-      <c r="AE80" s="26"/>
-      <c r="AF80" s="26"/>
-      <c r="AG80" s="26"/>
-      <c r="AH80" s="26"/>
-      <c r="AI80" s="25"/>
+      <c r="C80" s="17"/>
+      <c r="E80" s="21"/>
+      <c r="AC80" s="20"/>
+      <c r="AD80" s="19"/>
+      <c r="AE80" s="19"/>
+      <c r="AF80" s="19"/>
+      <c r="AG80" s="19"/>
+      <c r="AH80" s="19"/>
+      <c r="AI80" s="18"/>
     </row>
     <row r="81" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="12"/>
-      <c r="B81" s="11" t="s">
+      <c r="A81" s="24"/>
+      <c r="B81" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="11"/>
-      <c r="E81" s="20"/>
-      <c r="AC81" s="27"/>
-      <c r="AD81" s="26"/>
-      <c r="AE81" s="26"/>
-      <c r="AF81" s="26"/>
-      <c r="AG81" s="26"/>
-      <c r="AH81" s="26"/>
-      <c r="AI81" s="25"/>
+      <c r="C81" s="17"/>
+      <c r="E81" s="21"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="19"/>
+      <c r="AE81" s="19"/>
+      <c r="AF81" s="19"/>
+      <c r="AG81" s="19"/>
+      <c r="AH81" s="19"/>
+      <c r="AI81" s="18"/>
     </row>
     <row r="82" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="12"/>
-      <c r="B82" s="8" t="s">
+      <c r="A82" s="24"/>
+      <c r="B82" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="9"/>
+      <c r="C82" s="23"/>
       <c r="D82" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E82" s="20"/>
-      <c r="AC82" s="27"/>
-      <c r="AD82" s="26"/>
-      <c r="AE82" s="26"/>
-      <c r="AF82" s="26"/>
-      <c r="AG82" s="26"/>
-      <c r="AH82" s="26"/>
-      <c r="AI82" s="25"/>
+      <c r="E82" s="21"/>
+      <c r="AC82" s="20"/>
+      <c r="AD82" s="19"/>
+      <c r="AE82" s="19"/>
+      <c r="AF82" s="19"/>
+      <c r="AG82" s="19"/>
+      <c r="AH82" s="19"/>
+      <c r="AI82" s="18"/>
     </row>
     <row r="83" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="12"/>
-      <c r="B83" s="10" t="s">
+      <c r="A83" s="24"/>
+      <c r="B83" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="11"/>
-      <c r="E83" s="20"/>
-      <c r="AC83" s="27"/>
-      <c r="AD83" s="26"/>
-      <c r="AE83" s="26"/>
-      <c r="AF83" s="26"/>
-      <c r="AG83" s="26"/>
-      <c r="AH83" s="26"/>
-      <c r="AI83" s="25"/>
+      <c r="C83" s="17"/>
+      <c r="E83" s="21"/>
+      <c r="AC83" s="20"/>
+      <c r="AD83" s="19"/>
+      <c r="AE83" s="19"/>
+      <c r="AF83" s="19"/>
+      <c r="AG83" s="19"/>
+      <c r="AH83" s="19"/>
+      <c r="AI83" s="18"/>
     </row>
     <row r="84" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="12"/>
-      <c r="B84" s="11" t="s">
+      <c r="A84" s="24"/>
+      <c r="B84" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="11"/>
-      <c r="E84" s="20"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="26"/>
-      <c r="AE84" s="26"/>
-      <c r="AF84" s="26"/>
-      <c r="AG84" s="26"/>
-      <c r="AH84" s="26"/>
-      <c r="AI84" s="25"/>
+      <c r="C84" s="17"/>
+      <c r="E84" s="21"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="19"/>
+      <c r="AE84" s="19"/>
+      <c r="AF84" s="19"/>
+      <c r="AG84" s="19"/>
+      <c r="AH84" s="19"/>
+      <c r="AI84" s="18"/>
     </row>
     <row r="85" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="12"/>
-      <c r="B85" s="11" t="s">
+      <c r="A85" s="24"/>
+      <c r="B85" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="11"/>
-      <c r="E85" s="20"/>
-      <c r="AC85" s="27"/>
-      <c r="AD85" s="26"/>
-      <c r="AE85" s="26"/>
-      <c r="AF85" s="26"/>
-      <c r="AG85" s="26"/>
-      <c r="AH85" s="26"/>
-      <c r="AI85" s="25"/>
+      <c r="C85" s="17"/>
+      <c r="E85" s="21"/>
+      <c r="AC85" s="20"/>
+      <c r="AD85" s="19"/>
+      <c r="AE85" s="19"/>
+      <c r="AF85" s="19"/>
+      <c r="AG85" s="19"/>
+      <c r="AH85" s="19"/>
+      <c r="AI85" s="18"/>
     </row>
     <row r="86" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="9"/>
+      <c r="C86" s="23"/>
       <c r="D86" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E86" s="20"/>
-      <c r="AC86" s="27"/>
-      <c r="AD86" s="26"/>
-      <c r="AE86" s="26"/>
-      <c r="AF86" s="26"/>
-      <c r="AG86" s="26"/>
-      <c r="AH86" s="26"/>
-      <c r="AI86" s="25"/>
+      <c r="E86" s="21"/>
+      <c r="AC86" s="20"/>
+      <c r="AD86" s="19"/>
+      <c r="AE86" s="19"/>
+      <c r="AF86" s="19"/>
+      <c r="AG86" s="19"/>
+      <c r="AH86" s="19"/>
+      <c r="AI86" s="18"/>
     </row>
     <row r="87" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="12"/>
-      <c r="B87" s="10" t="s">
+      <c r="A87" s="24"/>
+      <c r="B87" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C87" s="11"/>
+      <c r="C87" s="17"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="20"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="AC87" s="27"/>
-      <c r="AD87" s="26"/>
-      <c r="AE87" s="26"/>
-      <c r="AF87" s="26"/>
-      <c r="AG87" s="26"/>
-      <c r="AH87" s="26"/>
-      <c r="AI87" s="25"/>
+      <c r="E87" s="21"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="AC87" s="20"/>
+      <c r="AD87" s="19"/>
+      <c r="AE87" s="19"/>
+      <c r="AF87" s="19"/>
+      <c r="AG87" s="19"/>
+      <c r="AH87" s="19"/>
+      <c r="AI87" s="18"/>
     </row>
     <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="12"/>
-      <c r="B88" s="10" t="s">
+      <c r="A88" s="24"/>
+      <c r="B88" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="11"/>
-      <c r="E88" s="20"/>
-      <c r="I88" s="22"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="26"/>
-      <c r="AE88" s="26"/>
-      <c r="AF88" s="26"/>
-      <c r="AG88" s="26"/>
-      <c r="AH88" s="26"/>
-      <c r="AI88" s="25"/>
+      <c r="C88" s="17"/>
+      <c r="E88" s="21"/>
+      <c r="I88" s="11"/>
+      <c r="AC88" s="20"/>
+      <c r="AD88" s="19"/>
+      <c r="AE88" s="19"/>
+      <c r="AF88" s="19"/>
+      <c r="AG88" s="19"/>
+      <c r="AH88" s="19"/>
+      <c r="AI88" s="18"/>
     </row>
     <row r="89" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="12"/>
-      <c r="B89" s="11" t="s">
+      <c r="A89" s="24"/>
+      <c r="B89" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="11"/>
-      <c r="E89" s="20"/>
-      <c r="I89" s="22"/>
-      <c r="AC89" s="27"/>
-      <c r="AD89" s="26"/>
-      <c r="AE89" s="26"/>
-      <c r="AF89" s="26"/>
-      <c r="AG89" s="26"/>
-      <c r="AH89" s="26"/>
-      <c r="AI89" s="25"/>
+      <c r="C89" s="17"/>
+      <c r="E89" s="21"/>
+      <c r="I89" s="11"/>
+      <c r="AC89" s="20"/>
+      <c r="AD89" s="19"/>
+      <c r="AE89" s="19"/>
+      <c r="AF89" s="19"/>
+      <c r="AG89" s="19"/>
+      <c r="AH89" s="19"/>
+      <c r="AI89" s="18"/>
     </row>
     <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="12"/>
-      <c r="B90" s="11" t="s">
+      <c r="A90" s="24"/>
+      <c r="B90" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="11"/>
-      <c r="E90" s="20"/>
-      <c r="AC90" s="27"/>
-      <c r="AD90" s="26"/>
-      <c r="AE90" s="26"/>
-      <c r="AF90" s="26"/>
-      <c r="AG90" s="26"/>
-      <c r="AH90" s="26"/>
-      <c r="AI90" s="25"/>
+      <c r="C90" s="17"/>
+      <c r="E90" s="21"/>
+      <c r="Z90" s="11"/>
+      <c r="AC90" s="20"/>
+      <c r="AD90" s="19"/>
+      <c r="AE90" s="19"/>
+      <c r="AF90" s="19"/>
+      <c r="AG90" s="19"/>
+      <c r="AH90" s="19"/>
+      <c r="AI90" s="18"/>
     </row>
     <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="12"/>
-      <c r="B91" s="11" t="s">
+      <c r="A91" s="24"/>
+      <c r="B91" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C91" s="11"/>
-      <c r="E91" s="20"/>
-      <c r="AC91" s="27"/>
-      <c r="AD91" s="26"/>
-      <c r="AE91" s="26"/>
-      <c r="AF91" s="26"/>
-      <c r="AG91" s="26"/>
-      <c r="AH91" s="26"/>
-      <c r="AI91" s="25"/>
+      <c r="C91" s="17"/>
+      <c r="E91" s="21"/>
+      <c r="Z91" s="11"/>
+      <c r="AC91" s="20"/>
+      <c r="AD91" s="19"/>
+      <c r="AE91" s="19"/>
+      <c r="AF91" s="19"/>
+      <c r="AG91" s="19"/>
+      <c r="AH91" s="19"/>
+      <c r="AI91" s="18"/>
     </row>
     <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="12"/>
-      <c r="B92" s="11" t="s">
+      <c r="A92" s="24"/>
+      <c r="B92" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="11"/>
-      <c r="E92" s="20"/>
-      <c r="AC92" s="27"/>
-      <c r="AD92" s="26"/>
-      <c r="AE92" s="26"/>
-      <c r="AF92" s="26"/>
-      <c r="AG92" s="26"/>
-      <c r="AH92" s="26"/>
-      <c r="AI92" s="25"/>
+      <c r="C92" s="17"/>
+      <c r="E92" s="21"/>
+      <c r="Z92" s="11"/>
+      <c r="AC92" s="20"/>
+      <c r="AD92" s="19"/>
+      <c r="AE92" s="19"/>
+      <c r="AF92" s="19"/>
+      <c r="AG92" s="19"/>
+      <c r="AH92" s="19"/>
+      <c r="AI92" s="18"/>
     </row>
     <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="12"/>
-      <c r="B93" s="11" t="s">
+      <c r="A93" s="24"/>
+      <c r="B93" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="11"/>
-      <c r="E93" s="20"/>
-      <c r="AC93" s="27"/>
-      <c r="AD93" s="26"/>
-      <c r="AE93" s="26"/>
-      <c r="AF93" s="26"/>
-      <c r="AG93" s="26"/>
-      <c r="AH93" s="26"/>
-      <c r="AI93" s="25"/>
+      <c r="C93" s="17"/>
+      <c r="E93" s="21"/>
+      <c r="Z93" s="11"/>
+      <c r="AC93" s="20"/>
+      <c r="AD93" s="19"/>
+      <c r="AE93" s="19"/>
+      <c r="AF93" s="19"/>
+      <c r="AG93" s="19"/>
+      <c r="AH93" s="19"/>
+      <c r="AI93" s="18"/>
     </row>
     <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="12"/>
-      <c r="B94" s="11" t="s">
+      <c r="A94" s="24"/>
+      <c r="B94" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C94" s="11"/>
-      <c r="E94" s="20"/>
-      <c r="I94" s="22"/>
-      <c r="AC94" s="27"/>
-      <c r="AD94" s="26"/>
-      <c r="AE94" s="26"/>
-      <c r="AF94" s="26"/>
-      <c r="AG94" s="26"/>
-      <c r="AH94" s="26"/>
-      <c r="AI94" s="25"/>
+      <c r="C94" s="17"/>
+      <c r="E94" s="21"/>
+      <c r="I94" s="11"/>
+      <c r="AC94" s="20"/>
+      <c r="AD94" s="19"/>
+      <c r="AE94" s="19"/>
+      <c r="AF94" s="19"/>
+      <c r="AG94" s="19"/>
+      <c r="AH94" s="19"/>
+      <c r="AI94" s="18"/>
     </row>
     <row r="95" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="12"/>
-      <c r="B95" s="8" t="s">
+      <c r="A95" s="24"/>
+      <c r="B95" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C95" s="9"/>
+      <c r="C95" s="23"/>
       <c r="D95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E95" s="20"/>
-      <c r="AC95" s="27"/>
-      <c r="AD95" s="26"/>
-      <c r="AE95" s="26"/>
-      <c r="AF95" s="26"/>
-      <c r="AG95" s="26"/>
-      <c r="AH95" s="26"/>
-      <c r="AI95" s="25"/>
+      <c r="E95" s="21"/>
+      <c r="AC95" s="20"/>
+      <c r="AD95" s="19"/>
+      <c r="AE95" s="19"/>
+      <c r="AF95" s="19"/>
+      <c r="AG95" s="19"/>
+      <c r="AH95" s="19"/>
+      <c r="AI95" s="18"/>
     </row>
     <row r="96" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="12"/>
-      <c r="B96" s="10" t="s">
+      <c r="A96" s="24"/>
+      <c r="B96" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="11"/>
+      <c r="C96" s="17"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="20"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="AC96" s="27"/>
-      <c r="AD96" s="26"/>
-      <c r="AE96" s="26"/>
-      <c r="AF96" s="26"/>
-      <c r="AG96" s="26"/>
-      <c r="AH96" s="26"/>
-      <c r="AI96" s="25"/>
+      <c r="E96" s="21"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="AC96" s="20"/>
+      <c r="AD96" s="19"/>
+      <c r="AE96" s="19"/>
+      <c r="AF96" s="19"/>
+      <c r="AG96" s="19"/>
+      <c r="AH96" s="19"/>
+      <c r="AI96" s="18"/>
     </row>
     <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="12"/>
-      <c r="B97" s="10" t="s">
+      <c r="A97" s="24"/>
+      <c r="B97" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C97" s="11"/>
-      <c r="E97" s="20"/>
-      <c r="I97" s="22"/>
-      <c r="AC97" s="27"/>
-      <c r="AD97" s="26"/>
-      <c r="AE97" s="26"/>
-      <c r="AF97" s="26"/>
-      <c r="AG97" s="26"/>
-      <c r="AH97" s="26"/>
-      <c r="AI97" s="25"/>
+      <c r="C97" s="17"/>
+      <c r="E97" s="21"/>
+      <c r="I97" s="11"/>
+      <c r="AC97" s="20"/>
+      <c r="AD97" s="19"/>
+      <c r="AE97" s="19"/>
+      <c r="AF97" s="19"/>
+      <c r="AG97" s="19"/>
+      <c r="AH97" s="19"/>
+      <c r="AI97" s="18"/>
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="12"/>
-      <c r="B98" s="11" t="s">
+      <c r="A98" s="24"/>
+      <c r="B98" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="11"/>
-      <c r="E98" s="20"/>
-      <c r="I98" s="22"/>
-      <c r="AC98" s="27"/>
-      <c r="AD98" s="26"/>
-      <c r="AE98" s="26"/>
-      <c r="AF98" s="26"/>
-      <c r="AG98" s="26"/>
-      <c r="AH98" s="26"/>
-      <c r="AI98" s="25"/>
+      <c r="C98" s="17"/>
+      <c r="E98" s="21"/>
+      <c r="I98" s="11"/>
+      <c r="AC98" s="20"/>
+      <c r="AD98" s="19"/>
+      <c r="AE98" s="19"/>
+      <c r="AF98" s="19"/>
+      <c r="AG98" s="19"/>
+      <c r="AH98" s="19"/>
+      <c r="AI98" s="18"/>
     </row>
     <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="12"/>
-      <c r="B99" s="11" t="s">
+      <c r="A99" s="24"/>
+      <c r="B99" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C99" s="11"/>
-      <c r="E99" s="20"/>
-      <c r="AC99" s="27"/>
-      <c r="AD99" s="26"/>
-      <c r="AE99" s="26"/>
-      <c r="AF99" s="26"/>
-      <c r="AG99" s="26"/>
-      <c r="AH99" s="26"/>
-      <c r="AI99" s="25"/>
+      <c r="C99" s="17"/>
+      <c r="E99" s="21"/>
+      <c r="H99" s="11"/>
+      <c r="AC99" s="20"/>
+      <c r="AD99" s="19"/>
+      <c r="AE99" s="19"/>
+      <c r="AF99" s="19"/>
+      <c r="AG99" s="19"/>
+      <c r="AH99" s="19"/>
+      <c r="AI99" s="18"/>
     </row>
     <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="12"/>
-      <c r="B100" s="11" t="s">
+      <c r="A100" s="24"/>
+      <c r="B100" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C100" s="11"/>
-      <c r="E100" s="20"/>
-      <c r="AC100" s="27"/>
-      <c r="AD100" s="26"/>
-      <c r="AE100" s="26"/>
-      <c r="AF100" s="26"/>
-      <c r="AG100" s="26"/>
-      <c r="AH100" s="26"/>
-      <c r="AI100" s="25"/>
+      <c r="C100" s="17"/>
+      <c r="E100" s="21"/>
+      <c r="Q100" s="11"/>
+      <c r="AC100" s="20"/>
+      <c r="AD100" s="19"/>
+      <c r="AE100" s="19"/>
+      <c r="AF100" s="19"/>
+      <c r="AG100" s="19"/>
+      <c r="AH100" s="19"/>
+      <c r="AI100" s="18"/>
     </row>
     <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="12"/>
-      <c r="B101" s="11" t="s">
+      <c r="A101" s="24"/>
+      <c r="B101" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="11"/>
-      <c r="E101" s="20"/>
-      <c r="AC101" s="27"/>
-      <c r="AD101" s="26"/>
-      <c r="AE101" s="26"/>
-      <c r="AF101" s="26"/>
-      <c r="AG101" s="26"/>
-      <c r="AH101" s="26"/>
-      <c r="AI101" s="25"/>
+      <c r="C101" s="17"/>
+      <c r="E101" s="21"/>
+      <c r="O101" s="11"/>
+      <c r="AC101" s="20"/>
+      <c r="AD101" s="19"/>
+      <c r="AE101" s="19"/>
+      <c r="AF101" s="19"/>
+      <c r="AG101" s="19"/>
+      <c r="AH101" s="19"/>
+      <c r="AI101" s="18"/>
     </row>
     <row r="102" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C102" s="9"/>
+      <c r="C102" s="23"/>
       <c r="D102" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E102" s="20"/>
-      <c r="AC102" s="27"/>
-      <c r="AD102" s="26"/>
-      <c r="AE102" s="26"/>
-      <c r="AF102" s="26"/>
-      <c r="AG102" s="26"/>
-      <c r="AH102" s="26"/>
-      <c r="AI102" s="25"/>
+      <c r="E102" s="21"/>
+      <c r="AC102" s="20"/>
+      <c r="AD102" s="19"/>
+      <c r="AE102" s="19"/>
+      <c r="AF102" s="19"/>
+      <c r="AG102" s="19"/>
+      <c r="AH102" s="19"/>
+      <c r="AI102" s="18"/>
     </row>
     <row r="103" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="12"/>
-      <c r="B103" s="10" t="s">
+      <c r="A103" s="24"/>
+      <c r="B103" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="11"/>
+      <c r="C103" s="17"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="20"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="AC103" s="27"/>
-      <c r="AD103" s="26"/>
-      <c r="AE103" s="26"/>
-      <c r="AF103" s="26"/>
-      <c r="AG103" s="26"/>
-      <c r="AH103" s="26"/>
-      <c r="AI103" s="25"/>
+      <c r="E103" s="21"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="AC103" s="20"/>
+      <c r="AD103" s="19"/>
+      <c r="AE103" s="19"/>
+      <c r="AF103" s="19"/>
+      <c r="AG103" s="19"/>
+      <c r="AH103" s="19"/>
+      <c r="AI103" s="18"/>
     </row>
     <row r="104" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="12"/>
-      <c r="B104" s="10" t="s">
+      <c r="A104" s="24"/>
+      <c r="B104" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C104" s="11"/>
-      <c r="E104" s="20"/>
-      <c r="AC104" s="27"/>
-      <c r="AD104" s="26"/>
-      <c r="AE104" s="26"/>
-      <c r="AF104" s="26"/>
-      <c r="AG104" s="26"/>
-      <c r="AH104" s="26"/>
-      <c r="AI104" s="25"/>
+      <c r="C104" s="17"/>
+      <c r="E104" s="21"/>
+      <c r="I104" s="11"/>
+      <c r="AC104" s="20"/>
+      <c r="AD104" s="19"/>
+      <c r="AE104" s="19"/>
+      <c r="AF104" s="19"/>
+      <c r="AG104" s="19"/>
+      <c r="AH104" s="19"/>
+      <c r="AI104" s="18"/>
     </row>
     <row r="105" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="12"/>
-      <c r="B105" s="8" t="s">
+      <c r="A105" s="24"/>
+      <c r="B105" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C105" s="9"/>
+      <c r="C105" s="23"/>
       <c r="D105" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E105" s="20"/>
-      <c r="AC105" s="27"/>
-      <c r="AD105" s="26"/>
-      <c r="AE105" s="26"/>
-      <c r="AF105" s="26"/>
-      <c r="AG105" s="26"/>
-      <c r="AH105" s="26"/>
-      <c r="AI105" s="25"/>
+      <c r="E105" s="21"/>
+      <c r="AC105" s="20"/>
+      <c r="AD105" s="19"/>
+      <c r="AE105" s="19"/>
+      <c r="AF105" s="19"/>
+      <c r="AG105" s="19"/>
+      <c r="AH105" s="19"/>
+      <c r="AI105" s="18"/>
     </row>
     <row r="106" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="12"/>
-      <c r="B106" s="10" t="s">
+      <c r="A106" s="24"/>
+      <c r="B106" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="10"/>
+      <c r="C106" s="16"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="20"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22"/>
-      <c r="AC106" s="27"/>
-      <c r="AD106" s="26"/>
-      <c r="AE106" s="26"/>
-      <c r="AF106" s="26"/>
-      <c r="AG106" s="26"/>
-      <c r="AH106" s="26"/>
-      <c r="AI106" s="25"/>
+      <c r="E106" s="21"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="AC106" s="20"/>
+      <c r="AD106" s="19"/>
+      <c r="AE106" s="19"/>
+      <c r="AF106" s="19"/>
+      <c r="AG106" s="19"/>
+      <c r="AH106" s="19"/>
+      <c r="AI106" s="18"/>
     </row>
     <row r="107" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="12"/>
-      <c r="B107" s="10" t="s">
+      <c r="A107" s="24"/>
+      <c r="B107" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C107" s="11"/>
-      <c r="E107" s="20"/>
-      <c r="AC107" s="27"/>
-      <c r="AD107" s="26"/>
-      <c r="AE107" s="26"/>
-      <c r="AF107" s="26"/>
-      <c r="AG107" s="26"/>
-      <c r="AH107" s="26"/>
-      <c r="AI107" s="25"/>
+      <c r="C107" s="17"/>
+      <c r="E107" s="21"/>
+      <c r="AA107" s="11"/>
+      <c r="AC107" s="20"/>
+      <c r="AD107" s="19"/>
+      <c r="AE107" s="19"/>
+      <c r="AF107" s="19"/>
+      <c r="AG107" s="19"/>
+      <c r="AH107" s="19"/>
+      <c r="AI107" s="18"/>
     </row>
     <row r="108" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="12"/>
-      <c r="B108" s="11" t="s">
+      <c r="A108" s="24"/>
+      <c r="B108" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C108" s="11"/>
-      <c r="E108" s="20"/>
-      <c r="AC108" s="27"/>
-      <c r="AD108" s="26"/>
-      <c r="AE108" s="26"/>
-      <c r="AF108" s="26"/>
-      <c r="AG108" s="26"/>
-      <c r="AH108" s="26"/>
-      <c r="AI108" s="25"/>
+      <c r="C108" s="17"/>
+      <c r="E108" s="21"/>
+      <c r="AA108" s="11"/>
+      <c r="AC108" s="20"/>
+      <c r="AD108" s="19"/>
+      <c r="AE108" s="19"/>
+      <c r="AF108" s="19"/>
+      <c r="AG108" s="19"/>
+      <c r="AH108" s="19"/>
+      <c r="AI108" s="18"/>
     </row>
     <row r="109" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="12"/>
-      <c r="B109" s="11" t="s">
+      <c r="A109" s="24"/>
+      <c r="B109" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C109" s="11"/>
-      <c r="E109" s="20"/>
-      <c r="AC109" s="27"/>
-      <c r="AD109" s="26"/>
-      <c r="AE109" s="26"/>
-      <c r="AF109" s="26"/>
-      <c r="AG109" s="26"/>
-      <c r="AH109" s="26"/>
-      <c r="AI109" s="25"/>
+      <c r="C109" s="17"/>
+      <c r="E109" s="21"/>
+      <c r="AA109" s="11"/>
+      <c r="AC109" s="20"/>
+      <c r="AD109" s="19"/>
+      <c r="AE109" s="19"/>
+      <c r="AF109" s="19"/>
+      <c r="AG109" s="19"/>
+      <c r="AH109" s="19"/>
+      <c r="AI109" s="18"/>
     </row>
     <row r="110" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="12"/>
-      <c r="B110" s="11" t="s">
+      <c r="A110" s="24"/>
+      <c r="B110" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C110" s="11"/>
-      <c r="E110" s="20"/>
-      <c r="AC110" s="27"/>
-      <c r="AD110" s="26"/>
-      <c r="AE110" s="26"/>
-      <c r="AF110" s="26"/>
-      <c r="AG110" s="26"/>
-      <c r="AH110" s="26"/>
-      <c r="AI110" s="25"/>
+      <c r="C110" s="17"/>
+      <c r="E110" s="21"/>
+      <c r="AA110" s="11"/>
+      <c r="AC110" s="20"/>
+      <c r="AD110" s="19"/>
+      <c r="AE110" s="19"/>
+      <c r="AF110" s="19"/>
+      <c r="AG110" s="19"/>
+      <c r="AH110" s="19"/>
+      <c r="AI110" s="18"/>
     </row>
     <row r="111" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="12"/>
-      <c r="B111" s="11" t="s">
+      <c r="A111" s="24"/>
+      <c r="B111" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C111" s="11"/>
-      <c r="E111" s="20"/>
-      <c r="AC111" s="27"/>
-      <c r="AD111" s="26"/>
-      <c r="AE111" s="26"/>
-      <c r="AF111" s="26"/>
-      <c r="AG111" s="26"/>
-      <c r="AH111" s="26"/>
-      <c r="AI111" s="25"/>
+      <c r="C111" s="17"/>
+      <c r="E111" s="21"/>
+      <c r="AA111" s="11"/>
+      <c r="AC111" s="20"/>
+      <c r="AD111" s="19"/>
+      <c r="AE111" s="19"/>
+      <c r="AF111" s="19"/>
+      <c r="AG111" s="19"/>
+      <c r="AH111" s="19"/>
+      <c r="AI111" s="18"/>
     </row>
     <row r="112" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="12"/>
-      <c r="B112" s="11" t="s">
+      <c r="A112" s="24"/>
+      <c r="B112" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C112" s="11"/>
-      <c r="E112" s="20"/>
-      <c r="AC112" s="27"/>
-      <c r="AD112" s="26"/>
-      <c r="AE112" s="26"/>
-      <c r="AF112" s="26"/>
-      <c r="AG112" s="26"/>
-      <c r="AH112" s="26"/>
-      <c r="AI112" s="25"/>
+      <c r="C112" s="17"/>
+      <c r="E112" s="21"/>
+      <c r="AA112" s="11"/>
+      <c r="AC112" s="20"/>
+      <c r="AD112" s="19"/>
+      <c r="AE112" s="19"/>
+      <c r="AF112" s="19"/>
+      <c r="AG112" s="19"/>
+      <c r="AH112" s="19"/>
+      <c r="AI112" s="18"/>
     </row>
     <row r="113" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="12"/>
-      <c r="B113" s="11" t="s">
+      <c r="A113" s="24"/>
+      <c r="B113" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C113" s="11"/>
-      <c r="E113" s="20"/>
-      <c r="AC113" s="27"/>
-      <c r="AD113" s="26"/>
-      <c r="AE113" s="26"/>
-      <c r="AF113" s="26"/>
-      <c r="AG113" s="26"/>
-      <c r="AH113" s="26"/>
-      <c r="AI113" s="25"/>
+      <c r="C113" s="17"/>
+      <c r="E113" s="21"/>
+      <c r="AA113" s="11"/>
+      <c r="AC113" s="20"/>
+      <c r="AD113" s="19"/>
+      <c r="AE113" s="19"/>
+      <c r="AF113" s="19"/>
+      <c r="AG113" s="19"/>
+      <c r="AH113" s="19"/>
+      <c r="AI113" s="18"/>
     </row>
     <row r="114" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="12"/>
-      <c r="B114" s="8" t="s">
+      <c r="A114" s="24"/>
+      <c r="B114" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C114" s="9"/>
+      <c r="C114" s="23"/>
       <c r="D114" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E114" s="20"/>
-      <c r="AC114" s="27"/>
-      <c r="AD114" s="26"/>
-      <c r="AE114" s="26"/>
-      <c r="AF114" s="26"/>
-      <c r="AG114" s="26"/>
-      <c r="AH114" s="26"/>
-      <c r="AI114" s="25"/>
+      <c r="E114" s="21"/>
+      <c r="AC114" s="20"/>
+      <c r="AD114" s="19"/>
+      <c r="AE114" s="19"/>
+      <c r="AF114" s="19"/>
+      <c r="AG114" s="19"/>
+      <c r="AH114" s="19"/>
+      <c r="AI114" s="18"/>
     </row>
     <row r="115" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="12"/>
-      <c r="B115" s="10" t="s">
+      <c r="A115" s="24"/>
+      <c r="B115" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C115" s="11"/>
+      <c r="C115" s="17"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="20"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="AC115" s="27"/>
-      <c r="AD115" s="26"/>
-      <c r="AE115" s="26"/>
-      <c r="AF115" s="26"/>
-      <c r="AG115" s="26"/>
-      <c r="AH115" s="26"/>
-      <c r="AI115" s="25"/>
+      <c r="E115" s="21"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="AC115" s="20"/>
+      <c r="AD115" s="19"/>
+      <c r="AE115" s="19"/>
+      <c r="AF115" s="19"/>
+      <c r="AG115" s="19"/>
+      <c r="AH115" s="19"/>
+      <c r="AI115" s="18"/>
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="12"/>
-      <c r="B116" s="10" t="s">
+      <c r="A116" s="24"/>
+      <c r="B116" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C116" s="11"/>
-      <c r="E116" s="20"/>
-      <c r="AC116" s="27"/>
-      <c r="AD116" s="26"/>
-      <c r="AE116" s="26"/>
-      <c r="AF116" s="26"/>
-      <c r="AG116" s="26"/>
-      <c r="AH116" s="26"/>
-      <c r="AI116" s="25"/>
+      <c r="C116" s="17"/>
+      <c r="E116" s="21"/>
+      <c r="I116" s="11"/>
+      <c r="AC116" s="20"/>
+      <c r="AD116" s="19"/>
+      <c r="AE116" s="19"/>
+      <c r="AF116" s="19"/>
+      <c r="AG116" s="19"/>
+      <c r="AH116" s="19"/>
+      <c r="AI116" s="18"/>
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="12"/>
-      <c r="B117" s="11" t="s">
+      <c r="A117" s="24"/>
+      <c r="B117" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C117" s="11"/>
-      <c r="E117" s="20"/>
-      <c r="AC117" s="27"/>
-      <c r="AD117" s="26"/>
-      <c r="AE117" s="26"/>
-      <c r="AF117" s="26"/>
-      <c r="AG117" s="26"/>
-      <c r="AH117" s="26"/>
-      <c r="AI117" s="25"/>
+      <c r="C117" s="17"/>
+      <c r="E117" s="21"/>
+      <c r="J117" s="11"/>
+      <c r="AC117" s="20"/>
+      <c r="AD117" s="19"/>
+      <c r="AE117" s="19"/>
+      <c r="AF117" s="19"/>
+      <c r="AG117" s="19"/>
+      <c r="AH117" s="19"/>
+      <c r="AI117" s="18"/>
     </row>
     <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="12"/>
-      <c r="B118" s="11" t="s">
+      <c r="A118" s="24"/>
+      <c r="B118" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C118" s="11"/>
-      <c r="E118" s="20"/>
-      <c r="AC118" s="27"/>
-      <c r="AD118" s="26"/>
-      <c r="AE118" s="26"/>
-      <c r="AF118" s="26"/>
-      <c r="AG118" s="26"/>
-      <c r="AH118" s="26"/>
-      <c r="AI118" s="25"/>
+      <c r="C118" s="17"/>
+      <c r="E118" s="21"/>
+      <c r="I118" s="11"/>
+      <c r="AC118" s="20"/>
+      <c r="AD118" s="19"/>
+      <c r="AE118" s="19"/>
+      <c r="AF118" s="19"/>
+      <c r="AG118" s="19"/>
+      <c r="AH118" s="19"/>
+      <c r="AI118" s="18"/>
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="12"/>
-      <c r="B119" s="11" t="s">
+      <c r="A119" s="24"/>
+      <c r="B119" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="11"/>
-      <c r="E119" s="20"/>
-      <c r="AC119" s="27"/>
-      <c r="AD119" s="26"/>
-      <c r="AE119" s="26"/>
-      <c r="AF119" s="26"/>
-      <c r="AG119" s="26"/>
-      <c r="AH119" s="26"/>
-      <c r="AI119" s="25"/>
+      <c r="C119" s="17"/>
+      <c r="E119" s="21"/>
+      <c r="K119" s="11"/>
+      <c r="AC119" s="20"/>
+      <c r="AD119" s="19"/>
+      <c r="AE119" s="19"/>
+      <c r="AF119" s="19"/>
+      <c r="AG119" s="19"/>
+      <c r="AH119" s="19"/>
+      <c r="AI119" s="18"/>
     </row>
     <row r="120" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="12"/>
-      <c r="B120" s="8" t="s">
+      <c r="A120" s="24"/>
+      <c r="B120" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C120" s="9"/>
+      <c r="C120" s="23"/>
       <c r="D120" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E120" s="20"/>
-      <c r="AC120" s="27"/>
-      <c r="AD120" s="26"/>
-      <c r="AE120" s="26"/>
-      <c r="AF120" s="26"/>
-      <c r="AG120" s="26"/>
-      <c r="AH120" s="26"/>
-      <c r="AI120" s="25"/>
+      <c r="E120" s="21"/>
+      <c r="AC120" s="20"/>
+      <c r="AD120" s="19"/>
+      <c r="AE120" s="19"/>
+      <c r="AF120" s="19"/>
+      <c r="AG120" s="19"/>
+      <c r="AH120" s="19"/>
+      <c r="AI120" s="18"/>
     </row>
     <row r="121" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="12"/>
-      <c r="B121" s="10" t="s">
+      <c r="A121" s="24"/>
+      <c r="B121" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C121" s="11"/>
+      <c r="C121" s="17"/>
       <c r="D121" s="5"/>
-      <c r="E121" s="20"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="AC121" s="27"/>
-      <c r="AD121" s="26"/>
-      <c r="AE121" s="26"/>
-      <c r="AF121" s="26"/>
-      <c r="AG121" s="26"/>
-      <c r="AH121" s="26"/>
-      <c r="AI121" s="25"/>
+      <c r="E121" s="21"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="AC121" s="20"/>
+      <c r="AD121" s="19"/>
+      <c r="AE121" s="19"/>
+      <c r="AF121" s="19"/>
+      <c r="AG121" s="19"/>
+      <c r="AH121" s="19"/>
+      <c r="AI121" s="18"/>
     </row>
     <row r="122" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="12"/>
-      <c r="B122" s="10" t="s">
+      <c r="A122" s="24"/>
+      <c r="B122" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C122" s="11"/>
-      <c r="E122" s="20"/>
-      <c r="AC122" s="27"/>
-      <c r="AD122" s="26"/>
-      <c r="AE122" s="26"/>
-      <c r="AF122" s="26"/>
-      <c r="AG122" s="26"/>
-      <c r="AH122" s="26"/>
-      <c r="AI122" s="25"/>
+      <c r="C122" s="17"/>
+      <c r="E122" s="21"/>
+      <c r="K122" s="11"/>
+      <c r="AC122" s="20"/>
+      <c r="AD122" s="19"/>
+      <c r="AE122" s="19"/>
+      <c r="AF122" s="19"/>
+      <c r="AG122" s="19"/>
+      <c r="AH122" s="19"/>
+      <c r="AI122" s="18"/>
     </row>
     <row r="123" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
     </row>
     <row r="124" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="17"/>
-      <c r="K124" s="17"/>
-      <c r="L124" s="17"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
     </row>
     <row r="125" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="18"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="17"/>
-      <c r="K125" s="17"/>
-      <c r="L125" s="17"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
     </row>
     <row r="126" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="16"/>
-      <c r="L126" s="16"/>
-      <c r="M126" s="16"/>
-      <c r="N126" s="16"/>
-      <c r="O126" s="16"/>
-      <c r="P126" s="16"/>
-      <c r="Q126" s="16"/>
-      <c r="R126" s="21"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="8"/>
+      <c r="R126" s="10"/>
     </row>
     <row r="127" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="16"/>
-      <c r="L127" s="16"/>
-      <c r="M127" s="16"/>
-      <c r="N127" s="16"/>
-      <c r="O127" s="16"/>
-      <c r="P127" s="16"/>
-      <c r="Q127" s="16"/>
-      <c r="R127" s="21"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="151">
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A5:A40"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A1:U2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A102:A122"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A86:A101"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="A126:I127"/>
@@ -3672,133 +3819,6 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A73:A85"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A102:A122"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A86:A101"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A1:U2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A5:A40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高松/ドキュメント/高松プログラミングチーム開発スケジュール.xlsx
+++ b/高松/ドキュメント/高松プログラミングチーム開発スケジュール.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
   <si>
     <t>高松プログラマー開発スケジュール</t>
     <rPh sb="0" eb="2">
@@ -777,6 +777,28 @@
   </si>
   <si>
     <t>β</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※帰宅後・休日の作業に関しては各自自由に</t>
+    <rPh sb="1" eb="4">
+      <t>キタクゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジユウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -911,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,17 +976,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -978,23 +1018,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1276,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI127"/>
+  <dimension ref="A1:AI129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1296,133 +1321,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
       <c r="V1" s="7"/>
     </row>
     <row r="2" spans="1:35" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:35" ht="21" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="22">
         <v>42804</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22">
         <v>42805</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22">
         <v>42806</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14">
+      <c r="K3" s="22"/>
+      <c r="L3" s="22">
         <v>42807</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14">
+      <c r="M3" s="22"/>
+      <c r="N3" s="22">
         <v>42808</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14">
+      <c r="O3" s="22"/>
+      <c r="P3" s="22">
         <v>42809</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14">
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22">
         <v>42810</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14">
+      <c r="S3" s="22"/>
+      <c r="T3" s="22">
         <v>42811</v>
       </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14">
+      <c r="U3" s="22"/>
+      <c r="V3" s="22">
         <v>42812</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14">
+      <c r="W3" s="22"/>
+      <c r="X3" s="22">
         <v>42813</v>
       </c>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14">
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22">
         <v>42814</v>
       </c>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14">
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22">
         <v>42815</v>
       </c>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14">
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22">
         <v>42816</v>
       </c>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14">
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22">
         <v>42817</v>
       </c>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14">
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22">
         <v>42818</v>
       </c>
-      <c r="AI3" s="14"/>
+      <c r="AI3" s="22"/>
     </row>
     <row r="4" spans="1:35" ht="21" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1518,2124 +1543,2124 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="13"/>
-      <c r="AC5" s="20" t="s">
+      <c r="AC5" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AD5" s="19" t="s">
+      <c r="AD5" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="18" t="s">
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="13"/>
       <c r="G6" s="11"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="18"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="24"/>
     </row>
     <row r="7" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="13"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="18"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="24"/>
     </row>
     <row r="8" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="13"/>
       <c r="G8" s="11"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="18"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="24"/>
     </row>
     <row r="9" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="13"/>
       <c r="G9" s="11"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="18"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="24"/>
     </row>
     <row r="10" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="13"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="18"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="24"/>
     </row>
     <row r="11" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="21"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="13"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="18"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="24"/>
     </row>
     <row r="12" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="27"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="18"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="24"/>
     </row>
     <row r="13" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="27"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="18"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="24"/>
     </row>
     <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="18"/>
+      <c r="E14" s="27"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="24"/>
     </row>
     <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="21"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="18"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="27"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="24"/>
     </row>
     <row r="16" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="21"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="18"/>
+      <c r="E16" s="27"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="24"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="21"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="18"/>
+      <c r="E17" s="27"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="24"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="21"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="18"/>
+      <c r="E18" s="27"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="24"/>
     </row>
     <row r="19" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="18"/>
+      <c r="E19" s="27"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="24"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="27"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="18"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="24"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="27"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="18"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="24"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="27"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="18"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="24"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="24"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="27"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="18"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="24"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="24"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="27"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="18"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="24"/>
     </row>
     <row r="25" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="24"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="18"/>
+      <c r="E25" s="27"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="24"/>
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="27"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="18"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="24"/>
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="24"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="27"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="18"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="24"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="27"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="18"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="24"/>
     </row>
     <row r="29" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="24"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="18"/>
+      <c r="E29" s="27"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="24"/>
     </row>
     <row r="30" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="24"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="27"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="18"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="24"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="24"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="27"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="18"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="24"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="24"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="21"/>
+      <c r="E32" s="27"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="18"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="24"/>
     </row>
     <row r="33" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="24"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="27"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="19"/>
-      <c r="AI33" s="18"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="24"/>
     </row>
     <row r="34" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="24"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="18"/>
+      <c r="E34" s="27"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="24"/>
     </row>
     <row r="35" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="24"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="21"/>
+      <c r="E35" s="27"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="19"/>
-      <c r="AI35" s="18"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="24"/>
     </row>
     <row r="36" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="24"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="27"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="18"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="24"/>
     </row>
     <row r="37" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="24"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="21"/>
+      <c r="E37" s="27"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="18"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="24"/>
     </row>
     <row r="38" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="24"/>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="18"/>
+      <c r="E38" s="27"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="24"/>
     </row>
     <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="24"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="E39" s="21"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="18"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="E39" s="27"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="24"/>
     </row>
     <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="24"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="E40" s="21"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="19"/>
-      <c r="AI40" s="18"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="E40" s="27"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+      <c r="AI40" s="24"/>
     </row>
     <row r="41" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="18"/>
+      <c r="E41" s="27"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="24"/>
     </row>
     <row r="42" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="24"/>
-      <c r="B42" s="16" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="E42" s="21"/>
+      <c r="C42" s="15"/>
+      <c r="E42" s="27"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="18"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="24"/>
     </row>
     <row r="43" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="24"/>
-      <c r="B43" s="16" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="E43" s="21"/>
+      <c r="C43" s="14"/>
+      <c r="E43" s="27"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="19"/>
-      <c r="AI43" s="18"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="24"/>
     </row>
     <row r="44" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="24"/>
-      <c r="B44" s="22" t="s">
+      <c r="A44" s="18"/>
+      <c r="B44" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="22"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="19"/>
-      <c r="AH44" s="19"/>
-      <c r="AI44" s="18"/>
+      <c r="E44" s="27"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="24"/>
     </row>
     <row r="45" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="24"/>
-      <c r="B45" s="16" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="E45" s="21"/>
+      <c r="C45" s="14"/>
+      <c r="E45" s="27"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
-      <c r="AG45" s="19"/>
-      <c r="AH45" s="19"/>
-      <c r="AI45" s="18"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="25"/>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="24"/>
     </row>
     <row r="46" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="24"/>
-      <c r="B46" s="17" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="E46" s="21"/>
+      <c r="C46" s="15"/>
+      <c r="E46" s="27"/>
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
-      <c r="AC46" s="20"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AG46" s="19"/>
-      <c r="AH46" s="19"/>
-      <c r="AI46" s="18"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25"/>
+      <c r="AI46" s="24"/>
     </row>
     <row r="47" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="24"/>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="22"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="21"/>
+      <c r="E47" s="27"/>
       <c r="V47" s="11"/>
       <c r="W47" s="11"/>
-      <c r="AC47" s="20"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19"/>
-      <c r="AI47" s="18"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+      <c r="AI47" s="24"/>
     </row>
     <row r="48" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="24"/>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="18"/>
+      <c r="B48" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="23"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="21"/>
+      <c r="E48" s="27"/>
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="19"/>
-      <c r="AE48" s="19"/>
-      <c r="AF48" s="19"/>
-      <c r="AG48" s="19"/>
-      <c r="AH48" s="19"/>
-      <c r="AI48" s="18"/>
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+      <c r="AF48" s="25"/>
+      <c r="AG48" s="25"/>
+      <c r="AH48" s="25"/>
+      <c r="AI48" s="24"/>
     </row>
     <row r="49" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="23"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="21"/>
-      <c r="AC49" s="20"/>
-      <c r="AD49" s="19"/>
-      <c r="AE49" s="19"/>
-      <c r="AF49" s="19"/>
-      <c r="AG49" s="19"/>
-      <c r="AH49" s="19"/>
-      <c r="AI49" s="18"/>
+      <c r="E49" s="27"/>
+      <c r="AC49" s="26"/>
+      <c r="AD49" s="25"/>
+      <c r="AE49" s="25"/>
+      <c r="AF49" s="25"/>
+      <c r="AG49" s="25"/>
+      <c r="AH49" s="25"/>
+      <c r="AI49" s="24"/>
     </row>
     <row r="50" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="24"/>
-      <c r="B50" s="16" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="E50" s="21"/>
+      <c r="C50" s="15"/>
+      <c r="E50" s="27"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
       <c r="AA50" s="11"/>
       <c r="AB50" s="11"/>
-      <c r="AC50" s="20"/>
-      <c r="AD50" s="19"/>
-      <c r="AE50" s="19"/>
-      <c r="AF50" s="19"/>
-      <c r="AG50" s="19"/>
-      <c r="AH50" s="19"/>
-      <c r="AI50" s="18"/>
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="25"/>
+      <c r="AE50" s="25"/>
+      <c r="AF50" s="25"/>
+      <c r="AG50" s="25"/>
+      <c r="AH50" s="25"/>
+      <c r="AI50" s="24"/>
     </row>
     <row r="51" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="24"/>
-      <c r="B51" s="17" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="E51" s="21"/>
+      <c r="C51" s="15"/>
+      <c r="E51" s="27"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
       <c r="AB51" s="11"/>
-      <c r="AC51" s="20"/>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="19"/>
-      <c r="AH51" s="19"/>
-      <c r="AI51" s="18"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+      <c r="AF51" s="25"/>
+      <c r="AG51" s="25"/>
+      <c r="AH51" s="25"/>
+      <c r="AI51" s="24"/>
     </row>
     <row r="52" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="24"/>
-      <c r="B52" s="17" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="E52" s="21"/>
+      <c r="C52" s="15"/>
+      <c r="E52" s="27"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
       <c r="AB52" s="11"/>
-      <c r="AC52" s="20"/>
-      <c r="AD52" s="19"/>
-      <c r="AE52" s="19"/>
-      <c r="AF52" s="19"/>
-      <c r="AG52" s="19"/>
-      <c r="AH52" s="19"/>
-      <c r="AI52" s="18"/>
+      <c r="AC52" s="26"/>
+      <c r="AD52" s="25"/>
+      <c r="AE52" s="25"/>
+      <c r="AF52" s="25"/>
+      <c r="AG52" s="25"/>
+      <c r="AH52" s="25"/>
+      <c r="AI52" s="24"/>
     </row>
     <row r="53" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="24"/>
-      <c r="B53" s="17" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="E53" s="21"/>
+      <c r="C53" s="15"/>
+      <c r="E53" s="27"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
       <c r="AB53" s="11"/>
-      <c r="AC53" s="20"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
-      <c r="AH53" s="19"/>
-      <c r="AI53" s="18"/>
+      <c r="AC53" s="26"/>
+      <c r="AD53" s="25"/>
+      <c r="AE53" s="25"/>
+      <c r="AF53" s="25"/>
+      <c r="AG53" s="25"/>
+      <c r="AH53" s="25"/>
+      <c r="AI53" s="24"/>
     </row>
     <row r="54" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="24"/>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="18"/>
+      <c r="B54" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="E54" s="21"/>
+      <c r="C54" s="15"/>
+      <c r="E54" s="27"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
       <c r="AA54" s="11"/>
       <c r="AB54" s="11"/>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="19"/>
-      <c r="AE54" s="19"/>
-      <c r="AF54" s="19"/>
-      <c r="AG54" s="19"/>
-      <c r="AH54" s="19"/>
-      <c r="AI54" s="18"/>
+      <c r="AC54" s="26"/>
+      <c r="AD54" s="25"/>
+      <c r="AE54" s="25"/>
+      <c r="AF54" s="25"/>
+      <c r="AG54" s="25"/>
+      <c r="AH54" s="25"/>
+      <c r="AI54" s="24"/>
     </row>
     <row r="55" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="24"/>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="18"/>
+      <c r="B55" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="E55" s="21"/>
+      <c r="C55" s="15"/>
+      <c r="E55" s="27"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
       <c r="AA55" s="11"/>
       <c r="AB55" s="11"/>
-      <c r="AC55" s="20"/>
-      <c r="AD55" s="19"/>
-      <c r="AE55" s="19"/>
-      <c r="AF55" s="19"/>
-      <c r="AG55" s="19"/>
-      <c r="AH55" s="19"/>
-      <c r="AI55" s="18"/>
+      <c r="AC55" s="26"/>
+      <c r="AD55" s="25"/>
+      <c r="AE55" s="25"/>
+      <c r="AF55" s="25"/>
+      <c r="AG55" s="25"/>
+      <c r="AH55" s="25"/>
+      <c r="AI55" s="24"/>
     </row>
     <row r="56" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="24"/>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="E56" s="21"/>
+      <c r="C56" s="15"/>
+      <c r="E56" s="27"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
       <c r="AB56" s="11"/>
-      <c r="AC56" s="20"/>
-      <c r="AD56" s="19"/>
-      <c r="AE56" s="19"/>
-      <c r="AF56" s="19"/>
-      <c r="AG56" s="19"/>
-      <c r="AH56" s="19"/>
-      <c r="AI56" s="18"/>
+      <c r="AC56" s="26"/>
+      <c r="AD56" s="25"/>
+      <c r="AE56" s="25"/>
+      <c r="AF56" s="25"/>
+      <c r="AG56" s="25"/>
+      <c r="AH56" s="25"/>
+      <c r="AI56" s="24"/>
     </row>
     <row r="57" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="24"/>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="18"/>
+      <c r="B57" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="E57" s="21"/>
+      <c r="C57" s="15"/>
+      <c r="E57" s="27"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
       <c r="AA57" s="11"/>
       <c r="AB57" s="11"/>
-      <c r="AC57" s="20"/>
-      <c r="AD57" s="19"/>
-      <c r="AE57" s="19"/>
-      <c r="AF57" s="19"/>
-      <c r="AG57" s="19"/>
-      <c r="AH57" s="19"/>
-      <c r="AI57" s="18"/>
+      <c r="AC57" s="26"/>
+      <c r="AD57" s="25"/>
+      <c r="AE57" s="25"/>
+      <c r="AF57" s="25"/>
+      <c r="AG57" s="25"/>
+      <c r="AH57" s="25"/>
+      <c r="AI57" s="24"/>
     </row>
     <row r="58" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="24"/>
-      <c r="B58" s="22" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="23"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="21"/>
+      <c r="E58" s="27"/>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
       <c r="AA58" s="11"/>
       <c r="AB58" s="11"/>
-      <c r="AC58" s="20"/>
-      <c r="AD58" s="19"/>
-      <c r="AE58" s="19"/>
-      <c r="AF58" s="19"/>
-      <c r="AG58" s="19"/>
-      <c r="AH58" s="19"/>
-      <c r="AI58" s="18"/>
+      <c r="AC58" s="26"/>
+      <c r="AD58" s="25"/>
+      <c r="AE58" s="25"/>
+      <c r="AF58" s="25"/>
+      <c r="AG58" s="25"/>
+      <c r="AH58" s="25"/>
+      <c r="AI58" s="24"/>
     </row>
     <row r="59" spans="1:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="23"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="21"/>
-      <c r="AC59" s="20"/>
-      <c r="AD59" s="19"/>
-      <c r="AE59" s="19"/>
-      <c r="AF59" s="19"/>
-      <c r="AG59" s="19"/>
-      <c r="AH59" s="19"/>
-      <c r="AI59" s="18"/>
+      <c r="E59" s="27"/>
+      <c r="AC59" s="26"/>
+      <c r="AD59" s="25"/>
+      <c r="AE59" s="25"/>
+      <c r="AF59" s="25"/>
+      <c r="AG59" s="25"/>
+      <c r="AH59" s="25"/>
+      <c r="AI59" s="24"/>
     </row>
     <row r="60" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="25"/>
-      <c r="B60" s="22" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="23"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="AC60" s="20"/>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="19"/>
-      <c r="AF60" s="19"/>
-      <c r="AG60" s="19"/>
-      <c r="AH60" s="19"/>
-      <c r="AI60" s="18"/>
+      <c r="E60" s="27"/>
+      <c r="AC60" s="26"/>
+      <c r="AD60" s="25"/>
+      <c r="AE60" s="25"/>
+      <c r="AF60" s="25"/>
+      <c r="AG60" s="25"/>
+      <c r="AH60" s="25"/>
+      <c r="AI60" s="24"/>
     </row>
     <row r="61" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="25"/>
-      <c r="B61" s="16" t="s">
+      <c r="A61" s="21"/>
+      <c r="B61" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="E61" s="21"/>
+      <c r="C61" s="15"/>
+      <c r="E61" s="27"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="AC61" s="20"/>
-      <c r="AD61" s="19"/>
-      <c r="AE61" s="19"/>
-      <c r="AF61" s="19"/>
-      <c r="AG61" s="19"/>
-      <c r="AH61" s="19"/>
-      <c r="AI61" s="18"/>
+      <c r="AC61" s="26"/>
+      <c r="AD61" s="25"/>
+      <c r="AE61" s="25"/>
+      <c r="AF61" s="25"/>
+      <c r="AG61" s="25"/>
+      <c r="AH61" s="25"/>
+      <c r="AI61" s="24"/>
     </row>
     <row r="62" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="25"/>
-      <c r="B62" s="16" t="s">
+      <c r="A62" s="21"/>
+      <c r="B62" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="E62" s="21"/>
+      <c r="C62" s="15"/>
+      <c r="E62" s="27"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
-      <c r="AC62" s="20"/>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="19"/>
-      <c r="AF62" s="19"/>
-      <c r="AG62" s="19"/>
-      <c r="AH62" s="19"/>
-      <c r="AI62" s="18"/>
+      <c r="AC62" s="26"/>
+      <c r="AD62" s="25"/>
+      <c r="AE62" s="25"/>
+      <c r="AF62" s="25"/>
+      <c r="AG62" s="25"/>
+      <c r="AH62" s="25"/>
+      <c r="AI62" s="24"/>
     </row>
     <row r="63" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="25"/>
-      <c r="B63" s="22" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="23"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="21"/>
+      <c r="E63" s="27"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-      <c r="AC63" s="20"/>
-      <c r="AD63" s="19"/>
-      <c r="AE63" s="19"/>
-      <c r="AF63" s="19"/>
-      <c r="AG63" s="19"/>
-      <c r="AH63" s="19"/>
-      <c r="AI63" s="18"/>
+      <c r="AC63" s="26"/>
+      <c r="AD63" s="25"/>
+      <c r="AE63" s="25"/>
+      <c r="AF63" s="25"/>
+      <c r="AG63" s="25"/>
+      <c r="AH63" s="25"/>
+      <c r="AI63" s="24"/>
     </row>
     <row r="64" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="25"/>
-      <c r="B64" s="22" t="s">
+      <c r="A64" s="21"/>
+      <c r="B64" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="21"/>
+      <c r="E64" s="27"/>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
-      <c r="AC64" s="20"/>
-      <c r="AD64" s="19"/>
-      <c r="AE64" s="19"/>
-      <c r="AF64" s="19"/>
-      <c r="AG64" s="19"/>
-      <c r="AH64" s="19"/>
-      <c r="AI64" s="18"/>
+      <c r="AC64" s="26"/>
+      <c r="AD64" s="25"/>
+      <c r="AE64" s="25"/>
+      <c r="AF64" s="25"/>
+      <c r="AG64" s="25"/>
+      <c r="AH64" s="25"/>
+      <c r="AI64" s="24"/>
     </row>
     <row r="65" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="25"/>
-      <c r="B65" s="16" t="s">
+      <c r="A65" s="21"/>
+      <c r="B65" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="E65" s="21"/>
+      <c r="C65" s="15"/>
+      <c r="E65" s="27"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
-      <c r="AC65" s="20"/>
-      <c r="AD65" s="19"/>
-      <c r="AE65" s="19"/>
-      <c r="AF65" s="19"/>
-      <c r="AG65" s="19"/>
-      <c r="AH65" s="19"/>
-      <c r="AI65" s="18"/>
+      <c r="AC65" s="26"/>
+      <c r="AD65" s="25"/>
+      <c r="AE65" s="25"/>
+      <c r="AF65" s="25"/>
+      <c r="AG65" s="25"/>
+      <c r="AH65" s="25"/>
+      <c r="AI65" s="24"/>
     </row>
     <row r="66" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="25"/>
-      <c r="B66" s="17" t="s">
+      <c r="A66" s="21"/>
+      <c r="B66" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="E66" s="21"/>
+      <c r="C66" s="15"/>
+      <c r="E66" s="27"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
-      <c r="AC66" s="20"/>
-      <c r="AD66" s="19"/>
-      <c r="AE66" s="19"/>
-      <c r="AF66" s="19"/>
-      <c r="AG66" s="19"/>
-      <c r="AH66" s="19"/>
-      <c r="AI66" s="18"/>
+      <c r="AC66" s="26"/>
+      <c r="AD66" s="25"/>
+      <c r="AE66" s="25"/>
+      <c r="AF66" s="25"/>
+      <c r="AG66" s="25"/>
+      <c r="AH66" s="25"/>
+      <c r="AI66" s="24"/>
     </row>
     <row r="67" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="25"/>
-      <c r="B67" s="17" t="s">
+      <c r="A67" s="21"/>
+      <c r="B67" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="E67" s="21"/>
+      <c r="C67" s="15"/>
+      <c r="E67" s="27"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-      <c r="AC67" s="20"/>
-      <c r="AD67" s="19"/>
-      <c r="AE67" s="19"/>
-      <c r="AF67" s="19"/>
-      <c r="AG67" s="19"/>
-      <c r="AH67" s="19"/>
-      <c r="AI67" s="18"/>
+      <c r="AC67" s="26"/>
+      <c r="AD67" s="25"/>
+      <c r="AE67" s="25"/>
+      <c r="AF67" s="25"/>
+      <c r="AG67" s="25"/>
+      <c r="AH67" s="25"/>
+      <c r="AI67" s="24"/>
     </row>
     <row r="68" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="25"/>
-      <c r="B68" s="17" t="s">
+      <c r="A68" s="21"/>
+      <c r="B68" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="E68" s="21"/>
+      <c r="C68" s="15"/>
+      <c r="E68" s="27"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="AC68" s="20"/>
-      <c r="AD68" s="19"/>
-      <c r="AE68" s="19"/>
-      <c r="AF68" s="19"/>
-      <c r="AG68" s="19"/>
-      <c r="AH68" s="19"/>
-      <c r="AI68" s="18"/>
+      <c r="AC68" s="26"/>
+      <c r="AD68" s="25"/>
+      <c r="AE68" s="25"/>
+      <c r="AF68" s="25"/>
+      <c r="AG68" s="25"/>
+      <c r="AH68" s="25"/>
+      <c r="AI68" s="24"/>
     </row>
     <row r="69" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="25"/>
-      <c r="B69" s="17" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="E69" s="21"/>
+      <c r="C69" s="15"/>
+      <c r="E69" s="27"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
-      <c r="AC69" s="20"/>
-      <c r="AD69" s="19"/>
-      <c r="AE69" s="19"/>
-      <c r="AF69" s="19"/>
-      <c r="AG69" s="19"/>
-      <c r="AH69" s="19"/>
-      <c r="AI69" s="18"/>
+      <c r="AC69" s="26"/>
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="25"/>
+      <c r="AI69" s="24"/>
     </row>
     <row r="70" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="25"/>
-      <c r="B70" s="17" t="s">
+      <c r="A70" s="21"/>
+      <c r="B70" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="E70" s="21"/>
+      <c r="C70" s="15"/>
+      <c r="E70" s="27"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
-      <c r="AC70" s="20"/>
-      <c r="AD70" s="19"/>
-      <c r="AE70" s="19"/>
-      <c r="AF70" s="19"/>
-      <c r="AG70" s="19"/>
-      <c r="AH70" s="19"/>
-      <c r="AI70" s="18"/>
+      <c r="AC70" s="26"/>
+      <c r="AD70" s="25"/>
+      <c r="AE70" s="25"/>
+      <c r="AF70" s="25"/>
+      <c r="AG70" s="25"/>
+      <c r="AH70" s="25"/>
+      <c r="AI70" s="24"/>
     </row>
     <row r="71" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="25"/>
-      <c r="B71" s="22" t="s">
+      <c r="A71" s="21"/>
+      <c r="B71" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="23"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E71" s="21"/>
-      <c r="AC71" s="20"/>
-      <c r="AD71" s="19"/>
-      <c r="AE71" s="19"/>
-      <c r="AF71" s="19"/>
-      <c r="AG71" s="19"/>
-      <c r="AH71" s="19"/>
-      <c r="AI71" s="18"/>
+      <c r="E71" s="27"/>
+      <c r="AC71" s="26"/>
+      <c r="AD71" s="25"/>
+      <c r="AE71" s="25"/>
+      <c r="AF71" s="25"/>
+      <c r="AG71" s="25"/>
+      <c r="AH71" s="25"/>
+      <c r="AI71" s="24"/>
     </row>
     <row r="72" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="25"/>
-      <c r="B72" s="22" t="s">
+      <c r="A72" s="21"/>
+      <c r="B72" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="23"/>
+      <c r="C72" s="17"/>
       <c r="D72" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E72" s="21"/>
+      <c r="E72" s="27"/>
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
-      <c r="AC72" s="20"/>
-      <c r="AD72" s="19"/>
-      <c r="AE72" s="19"/>
-      <c r="AF72" s="19"/>
-      <c r="AG72" s="19"/>
-      <c r="AH72" s="19"/>
-      <c r="AI72" s="18"/>
+      <c r="AC72" s="26"/>
+      <c r="AD72" s="25"/>
+      <c r="AE72" s="25"/>
+      <c r="AF72" s="25"/>
+      <c r="AG72" s="25"/>
+      <c r="AH72" s="25"/>
+      <c r="AI72" s="24"/>
     </row>
     <row r="73" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="23"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="21"/>
-      <c r="AC73" s="20"/>
-      <c r="AD73" s="19"/>
-      <c r="AE73" s="19"/>
-      <c r="AF73" s="19"/>
-      <c r="AG73" s="19"/>
-      <c r="AH73" s="19"/>
-      <c r="AI73" s="18"/>
+      <c r="E73" s="27"/>
+      <c r="AC73" s="26"/>
+      <c r="AD73" s="25"/>
+      <c r="AE73" s="25"/>
+      <c r="AF73" s="25"/>
+      <c r="AG73" s="25"/>
+      <c r="AH73" s="25"/>
+      <c r="AI73" s="24"/>
     </row>
     <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="24"/>
-      <c r="B74" s="16" t="s">
+      <c r="A74" s="18"/>
+      <c r="B74" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="E74" s="21"/>
+      <c r="C74" s="15"/>
+      <c r="E74" s="27"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
-      <c r="AC74" s="20"/>
-      <c r="AD74" s="19"/>
-      <c r="AE74" s="19"/>
-      <c r="AF74" s="19"/>
-      <c r="AG74" s="19"/>
-      <c r="AH74" s="19"/>
-      <c r="AI74" s="18"/>
+      <c r="AC74" s="26"/>
+      <c r="AD74" s="25"/>
+      <c r="AE74" s="25"/>
+      <c r="AF74" s="25"/>
+      <c r="AG74" s="25"/>
+      <c r="AH74" s="25"/>
+      <c r="AI74" s="24"/>
     </row>
     <row r="75" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="24"/>
-      <c r="B75" s="17" t="s">
+      <c r="A75" s="18"/>
+      <c r="B75" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="E75" s="21"/>
+      <c r="C75" s="15"/>
+      <c r="E75" s="27"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
-      <c r="AC75" s="20"/>
-      <c r="AD75" s="19"/>
-      <c r="AE75" s="19"/>
-      <c r="AF75" s="19"/>
-      <c r="AG75" s="19"/>
-      <c r="AH75" s="19"/>
-      <c r="AI75" s="18"/>
+      <c r="AC75" s="26"/>
+      <c r="AD75" s="25"/>
+      <c r="AE75" s="25"/>
+      <c r="AF75" s="25"/>
+      <c r="AG75" s="25"/>
+      <c r="AH75" s="25"/>
+      <c r="AI75" s="24"/>
     </row>
     <row r="76" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="24"/>
-      <c r="B76" s="17" t="s">
+      <c r="A76" s="18"/>
+      <c r="B76" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="E76" s="21"/>
+      <c r="C76" s="15"/>
+      <c r="E76" s="27"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
-      <c r="AC76" s="20"/>
-      <c r="AD76" s="19"/>
-      <c r="AE76" s="19"/>
-      <c r="AF76" s="19"/>
-      <c r="AG76" s="19"/>
-      <c r="AH76" s="19"/>
-      <c r="AI76" s="18"/>
+      <c r="AC76" s="26"/>
+      <c r="AD76" s="25"/>
+      <c r="AE76" s="25"/>
+      <c r="AF76" s="25"/>
+      <c r="AG76" s="25"/>
+      <c r="AH76" s="25"/>
+      <c r="AI76" s="24"/>
     </row>
     <row r="77" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="24"/>
-      <c r="B77" s="17" t="s">
+      <c r="A77" s="18"/>
+      <c r="B77" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="E77" s="21"/>
+      <c r="C77" s="15"/>
+      <c r="E77" s="27"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
-      <c r="AC77" s="20"/>
-      <c r="AD77" s="19"/>
-      <c r="AE77" s="19"/>
-      <c r="AF77" s="19"/>
-      <c r="AG77" s="19"/>
-      <c r="AH77" s="19"/>
-      <c r="AI77" s="18"/>
+      <c r="AC77" s="26"/>
+      <c r="AD77" s="25"/>
+      <c r="AE77" s="25"/>
+      <c r="AF77" s="25"/>
+      <c r="AG77" s="25"/>
+      <c r="AH77" s="25"/>
+      <c r="AI77" s="24"/>
     </row>
     <row r="78" spans="1:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="24"/>
-      <c r="B78" s="22" t="s">
+      <c r="A78" s="18"/>
+      <c r="B78" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="23"/>
+      <c r="C78" s="17"/>
       <c r="D78" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E78" s="21"/>
-      <c r="AC78" s="20"/>
-      <c r="AD78" s="19"/>
-      <c r="AE78" s="19"/>
-      <c r="AF78" s="19"/>
-      <c r="AG78" s="19"/>
-      <c r="AH78" s="19"/>
-      <c r="AI78" s="18"/>
+      <c r="E78" s="27"/>
+      <c r="AC78" s="26"/>
+      <c r="AD78" s="25"/>
+      <c r="AE78" s="25"/>
+      <c r="AF78" s="25"/>
+      <c r="AG78" s="25"/>
+      <c r="AH78" s="25"/>
+      <c r="AI78" s="24"/>
     </row>
     <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="24"/>
-      <c r="B79" s="16" t="s">
+      <c r="A79" s="18"/>
+      <c r="B79" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C79" s="17"/>
-      <c r="E79" s="21"/>
-      <c r="AC79" s="20"/>
-      <c r="AD79" s="19"/>
-      <c r="AE79" s="19"/>
-      <c r="AF79" s="19"/>
-      <c r="AG79" s="19"/>
-      <c r="AH79" s="19"/>
-      <c r="AI79" s="18"/>
+      <c r="C79" s="15"/>
+      <c r="E79" s="27"/>
+      <c r="AC79" s="26"/>
+      <c r="AD79" s="25"/>
+      <c r="AE79" s="25"/>
+      <c r="AF79" s="25"/>
+      <c r="AG79" s="25"/>
+      <c r="AH79" s="25"/>
+      <c r="AI79" s="24"/>
     </row>
     <row r="80" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="24"/>
-      <c r="B80" s="17" t="s">
+      <c r="A80" s="18"/>
+      <c r="B80" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="E80" s="21"/>
-      <c r="AC80" s="20"/>
-      <c r="AD80" s="19"/>
-      <c r="AE80" s="19"/>
-      <c r="AF80" s="19"/>
-      <c r="AG80" s="19"/>
-      <c r="AH80" s="19"/>
-      <c r="AI80" s="18"/>
+      <c r="C80" s="15"/>
+      <c r="E80" s="27"/>
+      <c r="AC80" s="26"/>
+      <c r="AD80" s="25"/>
+      <c r="AE80" s="25"/>
+      <c r="AF80" s="25"/>
+      <c r="AG80" s="25"/>
+      <c r="AH80" s="25"/>
+      <c r="AI80" s="24"/>
     </row>
     <row r="81" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="24"/>
-      <c r="B81" s="17" t="s">
+      <c r="A81" s="18"/>
+      <c r="B81" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="17"/>
-      <c r="E81" s="21"/>
-      <c r="AC81" s="20"/>
-      <c r="AD81" s="19"/>
-      <c r="AE81" s="19"/>
-      <c r="AF81" s="19"/>
-      <c r="AG81" s="19"/>
-      <c r="AH81" s="19"/>
-      <c r="AI81" s="18"/>
+      <c r="C81" s="15"/>
+      <c r="E81" s="27"/>
+      <c r="AC81" s="26"/>
+      <c r="AD81" s="25"/>
+      <c r="AE81" s="25"/>
+      <c r="AF81" s="25"/>
+      <c r="AG81" s="25"/>
+      <c r="AH81" s="25"/>
+      <c r="AI81" s="24"/>
     </row>
     <row r="82" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="24"/>
-      <c r="B82" s="22" t="s">
+      <c r="A82" s="18"/>
+      <c r="B82" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="23"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E82" s="21"/>
-      <c r="AC82" s="20"/>
-      <c r="AD82" s="19"/>
-      <c r="AE82" s="19"/>
-      <c r="AF82" s="19"/>
-      <c r="AG82" s="19"/>
-      <c r="AH82" s="19"/>
-      <c r="AI82" s="18"/>
+      <c r="E82" s="27"/>
+      <c r="AC82" s="26"/>
+      <c r="AD82" s="25"/>
+      <c r="AE82" s="25"/>
+      <c r="AF82" s="25"/>
+      <c r="AG82" s="25"/>
+      <c r="AH82" s="25"/>
+      <c r="AI82" s="24"/>
     </row>
     <row r="83" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="24"/>
-      <c r="B83" s="16" t="s">
+      <c r="A83" s="18"/>
+      <c r="B83" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="E83" s="21"/>
-      <c r="AC83" s="20"/>
-      <c r="AD83" s="19"/>
-      <c r="AE83" s="19"/>
-      <c r="AF83" s="19"/>
-      <c r="AG83" s="19"/>
-      <c r="AH83" s="19"/>
-      <c r="AI83" s="18"/>
+      <c r="C83" s="15"/>
+      <c r="E83" s="27"/>
+      <c r="AC83" s="26"/>
+      <c r="AD83" s="25"/>
+      <c r="AE83" s="25"/>
+      <c r="AF83" s="25"/>
+      <c r="AG83" s="25"/>
+      <c r="AH83" s="25"/>
+      <c r="AI83" s="24"/>
     </row>
     <row r="84" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="24"/>
-      <c r="B84" s="17" t="s">
+      <c r="A84" s="18"/>
+      <c r="B84" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="E84" s="21"/>
-      <c r="AC84" s="20"/>
-      <c r="AD84" s="19"/>
-      <c r="AE84" s="19"/>
-      <c r="AF84" s="19"/>
-      <c r="AG84" s="19"/>
-      <c r="AH84" s="19"/>
-      <c r="AI84" s="18"/>
+      <c r="C84" s="15"/>
+      <c r="E84" s="27"/>
+      <c r="AC84" s="26"/>
+      <c r="AD84" s="25"/>
+      <c r="AE84" s="25"/>
+      <c r="AF84" s="25"/>
+      <c r="AG84" s="25"/>
+      <c r="AH84" s="25"/>
+      <c r="AI84" s="24"/>
     </row>
     <row r="85" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="24"/>
-      <c r="B85" s="17" t="s">
+      <c r="A85" s="18"/>
+      <c r="B85" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="E85" s="21"/>
-      <c r="AC85" s="20"/>
-      <c r="AD85" s="19"/>
-      <c r="AE85" s="19"/>
-      <c r="AF85" s="19"/>
-      <c r="AG85" s="19"/>
-      <c r="AH85" s="19"/>
-      <c r="AI85" s="18"/>
+      <c r="C85" s="15"/>
+      <c r="E85" s="27"/>
+      <c r="AC85" s="26"/>
+      <c r="AD85" s="25"/>
+      <c r="AE85" s="25"/>
+      <c r="AF85" s="25"/>
+      <c r="AG85" s="25"/>
+      <c r="AH85" s="25"/>
+      <c r="AI85" s="24"/>
     </row>
     <row r="86" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="23"/>
+      <c r="C86" s="17"/>
       <c r="D86" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E86" s="21"/>
-      <c r="AC86" s="20"/>
-      <c r="AD86" s="19"/>
-      <c r="AE86" s="19"/>
-      <c r="AF86" s="19"/>
-      <c r="AG86" s="19"/>
-      <c r="AH86" s="19"/>
-      <c r="AI86" s="18"/>
+      <c r="E86" s="27"/>
+      <c r="AC86" s="26"/>
+      <c r="AD86" s="25"/>
+      <c r="AE86" s="25"/>
+      <c r="AF86" s="25"/>
+      <c r="AG86" s="25"/>
+      <c r="AH86" s="25"/>
+      <c r="AI86" s="24"/>
     </row>
     <row r="87" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="24"/>
-      <c r="B87" s="16" t="s">
+      <c r="A87" s="18"/>
+      <c r="B87" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="21"/>
+      <c r="E87" s="27"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
-      <c r="AC87" s="20"/>
-      <c r="AD87" s="19"/>
-      <c r="AE87" s="19"/>
-      <c r="AF87" s="19"/>
-      <c r="AG87" s="19"/>
-      <c r="AH87" s="19"/>
-      <c r="AI87" s="18"/>
+      <c r="AC87" s="26"/>
+      <c r="AD87" s="25"/>
+      <c r="AE87" s="25"/>
+      <c r="AF87" s="25"/>
+      <c r="AG87" s="25"/>
+      <c r="AH87" s="25"/>
+      <c r="AI87" s="24"/>
     </row>
     <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="24"/>
-      <c r="B88" s="16" t="s">
+      <c r="A88" s="18"/>
+      <c r="B88" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="17"/>
-      <c r="E88" s="21"/>
+      <c r="C88" s="15"/>
+      <c r="E88" s="27"/>
       <c r="I88" s="11"/>
-      <c r="AC88" s="20"/>
-      <c r="AD88" s="19"/>
-      <c r="AE88" s="19"/>
-      <c r="AF88" s="19"/>
-      <c r="AG88" s="19"/>
-      <c r="AH88" s="19"/>
-      <c r="AI88" s="18"/>
+      <c r="AC88" s="26"/>
+      <c r="AD88" s="25"/>
+      <c r="AE88" s="25"/>
+      <c r="AF88" s="25"/>
+      <c r="AG88" s="25"/>
+      <c r="AH88" s="25"/>
+      <c r="AI88" s="24"/>
     </row>
     <row r="89" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="24"/>
-      <c r="B89" s="17" t="s">
+      <c r="A89" s="18"/>
+      <c r="B89" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="17"/>
-      <c r="E89" s="21"/>
+      <c r="C89" s="15"/>
+      <c r="E89" s="27"/>
       <c r="I89" s="11"/>
-      <c r="AC89" s="20"/>
-      <c r="AD89" s="19"/>
-      <c r="AE89" s="19"/>
-      <c r="AF89" s="19"/>
-      <c r="AG89" s="19"/>
-      <c r="AH89" s="19"/>
-      <c r="AI89" s="18"/>
+      <c r="AC89" s="26"/>
+      <c r="AD89" s="25"/>
+      <c r="AE89" s="25"/>
+      <c r="AF89" s="25"/>
+      <c r="AG89" s="25"/>
+      <c r="AH89" s="25"/>
+      <c r="AI89" s="24"/>
     </row>
     <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="24"/>
-      <c r="B90" s="17" t="s">
+      <c r="A90" s="18"/>
+      <c r="B90" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="17"/>
-      <c r="E90" s="21"/>
+      <c r="C90" s="15"/>
+      <c r="E90" s="27"/>
       <c r="Z90" s="11"/>
-      <c r="AC90" s="20"/>
-      <c r="AD90" s="19"/>
-      <c r="AE90" s="19"/>
-      <c r="AF90" s="19"/>
-      <c r="AG90" s="19"/>
-      <c r="AH90" s="19"/>
-      <c r="AI90" s="18"/>
+      <c r="AC90" s="26"/>
+      <c r="AD90" s="25"/>
+      <c r="AE90" s="25"/>
+      <c r="AF90" s="25"/>
+      <c r="AG90" s="25"/>
+      <c r="AH90" s="25"/>
+      <c r="AI90" s="24"/>
     </row>
     <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="24"/>
-      <c r="B91" s="17" t="s">
+      <c r="A91" s="18"/>
+      <c r="B91" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C91" s="17"/>
-      <c r="E91" s="21"/>
+      <c r="C91" s="15"/>
+      <c r="E91" s="27"/>
       <c r="Z91" s="11"/>
-      <c r="AC91" s="20"/>
-      <c r="AD91" s="19"/>
-      <c r="AE91" s="19"/>
-      <c r="AF91" s="19"/>
-      <c r="AG91" s="19"/>
-      <c r="AH91" s="19"/>
-      <c r="AI91" s="18"/>
+      <c r="AC91" s="26"/>
+      <c r="AD91" s="25"/>
+      <c r="AE91" s="25"/>
+      <c r="AF91" s="25"/>
+      <c r="AG91" s="25"/>
+      <c r="AH91" s="25"/>
+      <c r="AI91" s="24"/>
     </row>
     <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="24"/>
-      <c r="B92" s="17" t="s">
+      <c r="A92" s="18"/>
+      <c r="B92" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="E92" s="21"/>
+      <c r="C92" s="15"/>
+      <c r="E92" s="27"/>
       <c r="Z92" s="11"/>
-      <c r="AC92" s="20"/>
-      <c r="AD92" s="19"/>
-      <c r="AE92" s="19"/>
-      <c r="AF92" s="19"/>
-      <c r="AG92" s="19"/>
-      <c r="AH92" s="19"/>
-      <c r="AI92" s="18"/>
+      <c r="AC92" s="26"/>
+      <c r="AD92" s="25"/>
+      <c r="AE92" s="25"/>
+      <c r="AF92" s="25"/>
+      <c r="AG92" s="25"/>
+      <c r="AH92" s="25"/>
+      <c r="AI92" s="24"/>
     </row>
     <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="24"/>
-      <c r="B93" s="17" t="s">
+      <c r="A93" s="18"/>
+      <c r="B93" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="E93" s="21"/>
+      <c r="C93" s="15"/>
+      <c r="E93" s="27"/>
       <c r="Z93" s="11"/>
-      <c r="AC93" s="20"/>
-      <c r="AD93" s="19"/>
-      <c r="AE93" s="19"/>
-      <c r="AF93" s="19"/>
-      <c r="AG93" s="19"/>
-      <c r="AH93" s="19"/>
-      <c r="AI93" s="18"/>
+      <c r="AC93" s="26"/>
+      <c r="AD93" s="25"/>
+      <c r="AE93" s="25"/>
+      <c r="AF93" s="25"/>
+      <c r="AG93" s="25"/>
+      <c r="AH93" s="25"/>
+      <c r="AI93" s="24"/>
     </row>
     <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="24"/>
-      <c r="B94" s="17" t="s">
+      <c r="A94" s="18"/>
+      <c r="B94" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C94" s="17"/>
-      <c r="E94" s="21"/>
+      <c r="C94" s="15"/>
+      <c r="E94" s="27"/>
       <c r="I94" s="11"/>
-      <c r="AC94" s="20"/>
-      <c r="AD94" s="19"/>
-      <c r="AE94" s="19"/>
-      <c r="AF94" s="19"/>
-      <c r="AG94" s="19"/>
-      <c r="AH94" s="19"/>
-      <c r="AI94" s="18"/>
+      <c r="AC94" s="26"/>
+      <c r="AD94" s="25"/>
+      <c r="AE94" s="25"/>
+      <c r="AF94" s="25"/>
+      <c r="AG94" s="25"/>
+      <c r="AH94" s="25"/>
+      <c r="AI94" s="24"/>
     </row>
     <row r="95" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="24"/>
-      <c r="B95" s="22" t="s">
+      <c r="A95" s="18"/>
+      <c r="B95" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C95" s="23"/>
+      <c r="C95" s="17"/>
       <c r="D95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E95" s="21"/>
-      <c r="AC95" s="20"/>
-      <c r="AD95" s="19"/>
-      <c r="AE95" s="19"/>
-      <c r="AF95" s="19"/>
-      <c r="AG95" s="19"/>
-      <c r="AH95" s="19"/>
-      <c r="AI95" s="18"/>
+      <c r="E95" s="27"/>
+      <c r="AC95" s="26"/>
+      <c r="AD95" s="25"/>
+      <c r="AE95" s="25"/>
+      <c r="AF95" s="25"/>
+      <c r="AG95" s="25"/>
+      <c r="AH95" s="25"/>
+      <c r="AI95" s="24"/>
     </row>
     <row r="96" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="24"/>
-      <c r="B96" s="16" t="s">
+      <c r="A96" s="18"/>
+      <c r="B96" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="17"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="21"/>
+      <c r="E96" s="27"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
-      <c r="AC96" s="20"/>
-      <c r="AD96" s="19"/>
-      <c r="AE96" s="19"/>
-      <c r="AF96" s="19"/>
-      <c r="AG96" s="19"/>
-      <c r="AH96" s="19"/>
-      <c r="AI96" s="18"/>
+      <c r="AC96" s="26"/>
+      <c r="AD96" s="25"/>
+      <c r="AE96" s="25"/>
+      <c r="AF96" s="25"/>
+      <c r="AG96" s="25"/>
+      <c r="AH96" s="25"/>
+      <c r="AI96" s="24"/>
     </row>
     <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="24"/>
-      <c r="B97" s="16" t="s">
+      <c r="A97" s="18"/>
+      <c r="B97" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C97" s="17"/>
-      <c r="E97" s="21"/>
+      <c r="C97" s="15"/>
+      <c r="E97" s="27"/>
       <c r="I97" s="11"/>
-      <c r="AC97" s="20"/>
-      <c r="AD97" s="19"/>
-      <c r="AE97" s="19"/>
-      <c r="AF97" s="19"/>
-      <c r="AG97" s="19"/>
-      <c r="AH97" s="19"/>
-      <c r="AI97" s="18"/>
+      <c r="AC97" s="26"/>
+      <c r="AD97" s="25"/>
+      <c r="AE97" s="25"/>
+      <c r="AF97" s="25"/>
+      <c r="AG97" s="25"/>
+      <c r="AH97" s="25"/>
+      <c r="AI97" s="24"/>
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="24"/>
-      <c r="B98" s="17" t="s">
+      <c r="A98" s="18"/>
+      <c r="B98" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="17"/>
-      <c r="E98" s="21"/>
+      <c r="C98" s="15"/>
+      <c r="E98" s="27"/>
       <c r="I98" s="11"/>
-      <c r="AC98" s="20"/>
-      <c r="AD98" s="19"/>
-      <c r="AE98" s="19"/>
-      <c r="AF98" s="19"/>
-      <c r="AG98" s="19"/>
-      <c r="AH98" s="19"/>
-      <c r="AI98" s="18"/>
+      <c r="AC98" s="26"/>
+      <c r="AD98" s="25"/>
+      <c r="AE98" s="25"/>
+      <c r="AF98" s="25"/>
+      <c r="AG98" s="25"/>
+      <c r="AH98" s="25"/>
+      <c r="AI98" s="24"/>
     </row>
     <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="24"/>
-      <c r="B99" s="17" t="s">
+      <c r="A99" s="18"/>
+      <c r="B99" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C99" s="17"/>
-      <c r="E99" s="21"/>
+      <c r="C99" s="15"/>
+      <c r="E99" s="27"/>
       <c r="H99" s="11"/>
-      <c r="AC99" s="20"/>
-      <c r="AD99" s="19"/>
-      <c r="AE99" s="19"/>
-      <c r="AF99" s="19"/>
-      <c r="AG99" s="19"/>
-      <c r="AH99" s="19"/>
-      <c r="AI99" s="18"/>
+      <c r="AC99" s="26"/>
+      <c r="AD99" s="25"/>
+      <c r="AE99" s="25"/>
+      <c r="AF99" s="25"/>
+      <c r="AG99" s="25"/>
+      <c r="AH99" s="25"/>
+      <c r="AI99" s="24"/>
     </row>
     <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="24"/>
-      <c r="B100" s="17" t="s">
+      <c r="A100" s="18"/>
+      <c r="B100" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C100" s="17"/>
-      <c r="E100" s="21"/>
+      <c r="C100" s="15"/>
+      <c r="E100" s="27"/>
       <c r="Q100" s="11"/>
-      <c r="AC100" s="20"/>
-      <c r="AD100" s="19"/>
-      <c r="AE100" s="19"/>
-      <c r="AF100" s="19"/>
-      <c r="AG100" s="19"/>
-      <c r="AH100" s="19"/>
-      <c r="AI100" s="18"/>
+      <c r="AC100" s="26"/>
+      <c r="AD100" s="25"/>
+      <c r="AE100" s="25"/>
+      <c r="AF100" s="25"/>
+      <c r="AG100" s="25"/>
+      <c r="AH100" s="25"/>
+      <c r="AI100" s="24"/>
     </row>
     <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="24"/>
-      <c r="B101" s="17" t="s">
+      <c r="A101" s="18"/>
+      <c r="B101" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="E101" s="21"/>
+      <c r="C101" s="15"/>
+      <c r="E101" s="27"/>
       <c r="O101" s="11"/>
-      <c r="AC101" s="20"/>
-      <c r="AD101" s="19"/>
-      <c r="AE101" s="19"/>
-      <c r="AF101" s="19"/>
-      <c r="AG101" s="19"/>
-      <c r="AH101" s="19"/>
-      <c r="AI101" s="18"/>
+      <c r="AC101" s="26"/>
+      <c r="AD101" s="25"/>
+      <c r="AE101" s="25"/>
+      <c r="AF101" s="25"/>
+      <c r="AG101" s="25"/>
+      <c r="AH101" s="25"/>
+      <c r="AI101" s="24"/>
     </row>
     <row r="102" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C102" s="23"/>
+      <c r="C102" s="17"/>
       <c r="D102" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E102" s="21"/>
-      <c r="AC102" s="20"/>
-      <c r="AD102" s="19"/>
-      <c r="AE102" s="19"/>
-      <c r="AF102" s="19"/>
-      <c r="AG102" s="19"/>
-      <c r="AH102" s="19"/>
-      <c r="AI102" s="18"/>
+      <c r="E102" s="27"/>
+      <c r="AC102" s="26"/>
+      <c r="AD102" s="25"/>
+      <c r="AE102" s="25"/>
+      <c r="AF102" s="25"/>
+      <c r="AG102" s="25"/>
+      <c r="AH102" s="25"/>
+      <c r="AI102" s="24"/>
     </row>
     <row r="103" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="24"/>
-      <c r="B103" s="16" t="s">
+      <c r="A103" s="18"/>
+      <c r="B103" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="15"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="21"/>
+      <c r="E103" s="27"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
-      <c r="AC103" s="20"/>
-      <c r="AD103" s="19"/>
-      <c r="AE103" s="19"/>
-      <c r="AF103" s="19"/>
-      <c r="AG103" s="19"/>
-      <c r="AH103" s="19"/>
-      <c r="AI103" s="18"/>
+      <c r="AC103" s="26"/>
+      <c r="AD103" s="25"/>
+      <c r="AE103" s="25"/>
+      <c r="AF103" s="25"/>
+      <c r="AG103" s="25"/>
+      <c r="AH103" s="25"/>
+      <c r="AI103" s="24"/>
     </row>
     <row r="104" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="24"/>
-      <c r="B104" s="16" t="s">
+      <c r="A104" s="18"/>
+      <c r="B104" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C104" s="17"/>
-      <c r="E104" s="21"/>
+      <c r="C104" s="15"/>
+      <c r="E104" s="27"/>
       <c r="I104" s="11"/>
-      <c r="AC104" s="20"/>
-      <c r="AD104" s="19"/>
-      <c r="AE104" s="19"/>
-      <c r="AF104" s="19"/>
-      <c r="AG104" s="19"/>
-      <c r="AH104" s="19"/>
-      <c r="AI104" s="18"/>
+      <c r="AC104" s="26"/>
+      <c r="AD104" s="25"/>
+      <c r="AE104" s="25"/>
+      <c r="AF104" s="25"/>
+      <c r="AG104" s="25"/>
+      <c r="AH104" s="25"/>
+      <c r="AI104" s="24"/>
     </row>
     <row r="105" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="24"/>
-      <c r="B105" s="22" t="s">
+      <c r="A105" s="18"/>
+      <c r="B105" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C105" s="23"/>
+      <c r="C105" s="17"/>
       <c r="D105" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E105" s="21"/>
-      <c r="AC105" s="20"/>
-      <c r="AD105" s="19"/>
-      <c r="AE105" s="19"/>
-      <c r="AF105" s="19"/>
-      <c r="AG105" s="19"/>
-      <c r="AH105" s="19"/>
-      <c r="AI105" s="18"/>
+      <c r="E105" s="27"/>
+      <c r="AC105" s="26"/>
+      <c r="AD105" s="25"/>
+      <c r="AE105" s="25"/>
+      <c r="AF105" s="25"/>
+      <c r="AG105" s="25"/>
+      <c r="AH105" s="25"/>
+      <c r="AI105" s="24"/>
     </row>
     <row r="106" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="24"/>
-      <c r="B106" s="16" t="s">
+      <c r="A106" s="18"/>
+      <c r="B106" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="16"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="21"/>
+      <c r="E106" s="27"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
-      <c r="AC106" s="20"/>
-      <c r="AD106" s="19"/>
-      <c r="AE106" s="19"/>
-      <c r="AF106" s="19"/>
-      <c r="AG106" s="19"/>
-      <c r="AH106" s="19"/>
-      <c r="AI106" s="18"/>
+      <c r="AC106" s="26"/>
+      <c r="AD106" s="25"/>
+      <c r="AE106" s="25"/>
+      <c r="AF106" s="25"/>
+      <c r="AG106" s="25"/>
+      <c r="AH106" s="25"/>
+      <c r="AI106" s="24"/>
     </row>
     <row r="107" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="24"/>
-      <c r="B107" s="16" t="s">
+      <c r="A107" s="18"/>
+      <c r="B107" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C107" s="17"/>
-      <c r="E107" s="21"/>
+      <c r="C107" s="15"/>
+      <c r="E107" s="27"/>
       <c r="AA107" s="11"/>
-      <c r="AC107" s="20"/>
-      <c r="AD107" s="19"/>
-      <c r="AE107" s="19"/>
-      <c r="AF107" s="19"/>
-      <c r="AG107" s="19"/>
-      <c r="AH107" s="19"/>
-      <c r="AI107" s="18"/>
+      <c r="AC107" s="26"/>
+      <c r="AD107" s="25"/>
+      <c r="AE107" s="25"/>
+      <c r="AF107" s="25"/>
+      <c r="AG107" s="25"/>
+      <c r="AH107" s="25"/>
+      <c r="AI107" s="24"/>
     </row>
     <row r="108" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="24"/>
-      <c r="B108" s="17" t="s">
+      <c r="A108" s="18"/>
+      <c r="B108" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C108" s="17"/>
-      <c r="E108" s="21"/>
+      <c r="C108" s="15"/>
+      <c r="E108" s="27"/>
       <c r="AA108" s="11"/>
-      <c r="AC108" s="20"/>
-      <c r="AD108" s="19"/>
-      <c r="AE108" s="19"/>
-      <c r="AF108" s="19"/>
-      <c r="AG108" s="19"/>
-      <c r="AH108" s="19"/>
-      <c r="AI108" s="18"/>
+      <c r="AC108" s="26"/>
+      <c r="AD108" s="25"/>
+      <c r="AE108" s="25"/>
+      <c r="AF108" s="25"/>
+      <c r="AG108" s="25"/>
+      <c r="AH108" s="25"/>
+      <c r="AI108" s="24"/>
     </row>
     <row r="109" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="24"/>
-      <c r="B109" s="17" t="s">
+      <c r="A109" s="18"/>
+      <c r="B109" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C109" s="17"/>
-      <c r="E109" s="21"/>
+      <c r="C109" s="15"/>
+      <c r="E109" s="27"/>
       <c r="AA109" s="11"/>
-      <c r="AC109" s="20"/>
-      <c r="AD109" s="19"/>
-      <c r="AE109" s="19"/>
-      <c r="AF109" s="19"/>
-      <c r="AG109" s="19"/>
-      <c r="AH109" s="19"/>
-      <c r="AI109" s="18"/>
+      <c r="AC109" s="26"/>
+      <c r="AD109" s="25"/>
+      <c r="AE109" s="25"/>
+      <c r="AF109" s="25"/>
+      <c r="AG109" s="25"/>
+      <c r="AH109" s="25"/>
+      <c r="AI109" s="24"/>
     </row>
     <row r="110" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="24"/>
-      <c r="B110" s="17" t="s">
+      <c r="A110" s="18"/>
+      <c r="B110" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C110" s="17"/>
-      <c r="E110" s="21"/>
+      <c r="C110" s="15"/>
+      <c r="E110" s="27"/>
       <c r="AA110" s="11"/>
-      <c r="AC110" s="20"/>
-      <c r="AD110" s="19"/>
-      <c r="AE110" s="19"/>
-      <c r="AF110" s="19"/>
-      <c r="AG110" s="19"/>
-      <c r="AH110" s="19"/>
-      <c r="AI110" s="18"/>
+      <c r="AC110" s="26"/>
+      <c r="AD110" s="25"/>
+      <c r="AE110" s="25"/>
+      <c r="AF110" s="25"/>
+      <c r="AG110" s="25"/>
+      <c r="AH110" s="25"/>
+      <c r="AI110" s="24"/>
     </row>
     <row r="111" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="24"/>
-      <c r="B111" s="17" t="s">
+      <c r="A111" s="18"/>
+      <c r="B111" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C111" s="17"/>
-      <c r="E111" s="21"/>
+      <c r="C111" s="15"/>
+      <c r="E111" s="27"/>
       <c r="AA111" s="11"/>
-      <c r="AC111" s="20"/>
-      <c r="AD111" s="19"/>
-      <c r="AE111" s="19"/>
-      <c r="AF111" s="19"/>
-      <c r="AG111" s="19"/>
-      <c r="AH111" s="19"/>
-      <c r="AI111" s="18"/>
+      <c r="AC111" s="26"/>
+      <c r="AD111" s="25"/>
+      <c r="AE111" s="25"/>
+      <c r="AF111" s="25"/>
+      <c r="AG111" s="25"/>
+      <c r="AH111" s="25"/>
+      <c r="AI111" s="24"/>
     </row>
     <row r="112" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="24"/>
-      <c r="B112" s="17" t="s">
+      <c r="A112" s="18"/>
+      <c r="B112" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C112" s="17"/>
-      <c r="E112" s="21"/>
+      <c r="C112" s="15"/>
+      <c r="E112" s="27"/>
       <c r="AA112" s="11"/>
-      <c r="AC112" s="20"/>
-      <c r="AD112" s="19"/>
-      <c r="AE112" s="19"/>
-      <c r="AF112" s="19"/>
-      <c r="AG112" s="19"/>
-      <c r="AH112" s="19"/>
-      <c r="AI112" s="18"/>
+      <c r="AC112" s="26"/>
+      <c r="AD112" s="25"/>
+      <c r="AE112" s="25"/>
+      <c r="AF112" s="25"/>
+      <c r="AG112" s="25"/>
+      <c r="AH112" s="25"/>
+      <c r="AI112" s="24"/>
     </row>
     <row r="113" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="24"/>
-      <c r="B113" s="17" t="s">
+      <c r="A113" s="18"/>
+      <c r="B113" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C113" s="17"/>
-      <c r="E113" s="21"/>
+      <c r="C113" s="15"/>
+      <c r="E113" s="27"/>
       <c r="AA113" s="11"/>
-      <c r="AC113" s="20"/>
-      <c r="AD113" s="19"/>
-      <c r="AE113" s="19"/>
-      <c r="AF113" s="19"/>
-      <c r="AG113" s="19"/>
-      <c r="AH113" s="19"/>
-      <c r="AI113" s="18"/>
+      <c r="AC113" s="26"/>
+      <c r="AD113" s="25"/>
+      <c r="AE113" s="25"/>
+      <c r="AF113" s="25"/>
+      <c r="AG113" s="25"/>
+      <c r="AH113" s="25"/>
+      <c r="AI113" s="24"/>
     </row>
     <row r="114" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="24"/>
-      <c r="B114" s="22" t="s">
+      <c r="A114" s="18"/>
+      <c r="B114" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C114" s="23"/>
+      <c r="C114" s="17"/>
       <c r="D114" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E114" s="21"/>
-      <c r="AC114" s="20"/>
-      <c r="AD114" s="19"/>
-      <c r="AE114" s="19"/>
-      <c r="AF114" s="19"/>
-      <c r="AG114" s="19"/>
-      <c r="AH114" s="19"/>
-      <c r="AI114" s="18"/>
+      <c r="E114" s="27"/>
+      <c r="AC114" s="26"/>
+      <c r="AD114" s="25"/>
+      <c r="AE114" s="25"/>
+      <c r="AF114" s="25"/>
+      <c r="AG114" s="25"/>
+      <c r="AH114" s="25"/>
+      <c r="AI114" s="24"/>
     </row>
     <row r="115" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="24"/>
-      <c r="B115" s="16" t="s">
+      <c r="A115" s="18"/>
+      <c r="B115" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C115" s="17"/>
+      <c r="C115" s="15"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="21"/>
+      <c r="E115" s="27"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
-      <c r="AC115" s="20"/>
-      <c r="AD115" s="19"/>
-      <c r="AE115" s="19"/>
-      <c r="AF115" s="19"/>
-      <c r="AG115" s="19"/>
-      <c r="AH115" s="19"/>
-      <c r="AI115" s="18"/>
+      <c r="AC115" s="26"/>
+      <c r="AD115" s="25"/>
+      <c r="AE115" s="25"/>
+      <c r="AF115" s="25"/>
+      <c r="AG115" s="25"/>
+      <c r="AH115" s="25"/>
+      <c r="AI115" s="24"/>
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="24"/>
-      <c r="B116" s="16" t="s">
+      <c r="A116" s="18"/>
+      <c r="B116" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C116" s="17"/>
-      <c r="E116" s="21"/>
+      <c r="C116" s="15"/>
+      <c r="E116" s="27"/>
       <c r="I116" s="11"/>
-      <c r="AC116" s="20"/>
-      <c r="AD116" s="19"/>
-      <c r="AE116" s="19"/>
-      <c r="AF116" s="19"/>
-      <c r="AG116" s="19"/>
-      <c r="AH116" s="19"/>
-      <c r="AI116" s="18"/>
+      <c r="AC116" s="26"/>
+      <c r="AD116" s="25"/>
+      <c r="AE116" s="25"/>
+      <c r="AF116" s="25"/>
+      <c r="AG116" s="25"/>
+      <c r="AH116" s="25"/>
+      <c r="AI116" s="24"/>
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="24"/>
-      <c r="B117" s="17" t="s">
+      <c r="A117" s="18"/>
+      <c r="B117" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C117" s="17"/>
-      <c r="E117" s="21"/>
+      <c r="C117" s="15"/>
+      <c r="E117" s="27"/>
       <c r="J117" s="11"/>
-      <c r="AC117" s="20"/>
-      <c r="AD117" s="19"/>
-      <c r="AE117" s="19"/>
-      <c r="AF117" s="19"/>
-      <c r="AG117" s="19"/>
-      <c r="AH117" s="19"/>
-      <c r="AI117" s="18"/>
+      <c r="AC117" s="26"/>
+      <c r="AD117" s="25"/>
+      <c r="AE117" s="25"/>
+      <c r="AF117" s="25"/>
+      <c r="AG117" s="25"/>
+      <c r="AH117" s="25"/>
+      <c r="AI117" s="24"/>
     </row>
     <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="24"/>
-      <c r="B118" s="17" t="s">
+      <c r="A118" s="18"/>
+      <c r="B118" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C118" s="17"/>
-      <c r="E118" s="21"/>
+      <c r="C118" s="15"/>
+      <c r="E118" s="27"/>
       <c r="I118" s="11"/>
-      <c r="AC118" s="20"/>
-      <c r="AD118" s="19"/>
-      <c r="AE118" s="19"/>
-      <c r="AF118" s="19"/>
-      <c r="AG118" s="19"/>
-      <c r="AH118" s="19"/>
-      <c r="AI118" s="18"/>
+      <c r="AC118" s="26"/>
+      <c r="AD118" s="25"/>
+      <c r="AE118" s="25"/>
+      <c r="AF118" s="25"/>
+      <c r="AG118" s="25"/>
+      <c r="AH118" s="25"/>
+      <c r="AI118" s="24"/>
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="24"/>
-      <c r="B119" s="17" t="s">
+      <c r="A119" s="18"/>
+      <c r="B119" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="E119" s="21"/>
+      <c r="C119" s="15"/>
+      <c r="E119" s="27"/>
       <c r="K119" s="11"/>
-      <c r="AC119" s="20"/>
-      <c r="AD119" s="19"/>
-      <c r="AE119" s="19"/>
-      <c r="AF119" s="19"/>
-      <c r="AG119" s="19"/>
-      <c r="AH119" s="19"/>
-      <c r="AI119" s="18"/>
+      <c r="AC119" s="26"/>
+      <c r="AD119" s="25"/>
+      <c r="AE119" s="25"/>
+      <c r="AF119" s="25"/>
+      <c r="AG119" s="25"/>
+      <c r="AH119" s="25"/>
+      <c r="AI119" s="24"/>
     </row>
     <row r="120" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="24"/>
-      <c r="B120" s="22" t="s">
+      <c r="A120" s="18"/>
+      <c r="B120" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C120" s="23"/>
+      <c r="C120" s="17"/>
       <c r="D120" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E120" s="21"/>
-      <c r="AC120" s="20"/>
-      <c r="AD120" s="19"/>
-      <c r="AE120" s="19"/>
-      <c r="AF120" s="19"/>
-      <c r="AG120" s="19"/>
-      <c r="AH120" s="19"/>
-      <c r="AI120" s="18"/>
+      <c r="E120" s="27"/>
+      <c r="AC120" s="26"/>
+      <c r="AD120" s="25"/>
+      <c r="AE120" s="25"/>
+      <c r="AF120" s="25"/>
+      <c r="AG120" s="25"/>
+      <c r="AH120" s="25"/>
+      <c r="AI120" s="24"/>
     </row>
     <row r="121" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="24"/>
-      <c r="B121" s="16" t="s">
+      <c r="A121" s="18"/>
+      <c r="B121" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="15"/>
       <c r="D121" s="5"/>
-      <c r="E121" s="21"/>
+      <c r="E121" s="27"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
-      <c r="AC121" s="20"/>
-      <c r="AD121" s="19"/>
-      <c r="AE121" s="19"/>
-      <c r="AF121" s="19"/>
-      <c r="AG121" s="19"/>
-      <c r="AH121" s="19"/>
-      <c r="AI121" s="18"/>
+      <c r="AC121" s="26"/>
+      <c r="AD121" s="25"/>
+      <c r="AE121" s="25"/>
+      <c r="AF121" s="25"/>
+      <c r="AG121" s="25"/>
+      <c r="AH121" s="25"/>
+      <c r="AI121" s="24"/>
     </row>
     <row r="122" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="24"/>
-      <c r="B122" s="16" t="s">
+      <c r="A122" s="18"/>
+      <c r="B122" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C122" s="17"/>
-      <c r="E122" s="21"/>
+      <c r="C122" s="15"/>
+      <c r="E122" s="27"/>
       <c r="K122" s="11"/>
-      <c r="AC122" s="20"/>
-      <c r="AD122" s="19"/>
-      <c r="AE122" s="19"/>
-      <c r="AF122" s="19"/>
-      <c r="AG122" s="19"/>
-      <c r="AH122" s="19"/>
-      <c r="AI122" s="18"/>
+      <c r="AC122" s="26"/>
+      <c r="AD122" s="25"/>
+      <c r="AE122" s="25"/>
+      <c r="AF122" s="25"/>
+      <c r="AG122" s="25"/>
+      <c r="AH122" s="25"/>
+      <c r="AI122" s="24"/>
     </row>
     <row r="123" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="23"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
     </row>
     <row r="125" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="23"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
     </row>
     <row r="126" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="23"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
@@ -3647,15 +3672,15 @@
       <c r="R126" s="10"/>
     </row>
     <row r="127" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="23"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
@@ -3666,39 +3691,122 @@
       <c r="Q127" s="8"/>
       <c r="R127" s="10"/>
     </row>
+    <row r="128" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A128" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" s="28"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="151">
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A5:A40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
+  <mergeCells count="152">
+    <mergeCell ref="A128:H129"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="A126:I127"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="A124:I125"/>
+    <mergeCell ref="AI5:AI122"/>
+    <mergeCell ref="AD5:AH122"/>
+    <mergeCell ref="AC5:AC122"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E5:E122"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A102:A122"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A86:A101"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
     <mergeCell ref="B112:C112"/>
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="B98:C98"/>
@@ -3723,102 +3831,42 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A5:A40"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B14:C15"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A73:A85"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A102:A122"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="A86:A101"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="A126:I127"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="A124:I125"/>
-    <mergeCell ref="AI5:AI122"/>
-    <mergeCell ref="AD5:AH122"/>
-    <mergeCell ref="AC5:AC122"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E5:E122"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
